--- a/Auswertung.xlsx
+++ b/Auswertung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="22035" windowHeight="12330" tabRatio="827" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="22035" windowHeight="12330" tabRatio="827"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="20" r:id="rId1"/>
@@ -28,17 +28,21 @@
     <sheet name="R120_Q100" sheetId="21" r:id="rId19"/>
     <sheet name="R120_Q150" sheetId="22" r:id="rId20"/>
     <sheet name="R130_Q50" sheetId="18" r:id="rId21"/>
-    <sheet name="R140_Q50" sheetId="19" r:id="rId22"/>
+    <sheet name="R130_Q100" sheetId="23" r:id="rId22"/>
+    <sheet name="R130_Q150" sheetId="24" r:id="rId23"/>
+    <sheet name="R140_Q50" sheetId="19" r:id="rId24"/>
+    <sheet name="R140_Q100" sheetId="25" r:id="rId25"/>
+    <sheet name="R140_Q150" sheetId="26" r:id="rId26"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId23"/>
+    <externalReference r:id="rId27"/>
   </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4100" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4588" uniqueCount="212">
   <si>
     <t>WELLID</t>
   </si>
@@ -652,6 +656,15 @@
     <t>WELL1118</t>
   </si>
   <si>
+    <t>Jahr: 2016 (Gesamtfoerderung 6B: 8.3 Millionen m3)</t>
+  </si>
+  <si>
+    <t>Jahr: 2017 (Gesamtfoerderung 6B: 24.8 Millionen m3)</t>
+  </si>
+  <si>
+    <t>Jahr: 2018 (Gesamtfoerderung 6B: 29.3 Millionen m3)</t>
+  </si>
+  <si>
     <t>Jahr: 2016 (Gesamtfoerderung 6B: 13.5 Millionen m3)</t>
   </si>
   <si>
@@ -659,6 +672,12 @@
   </si>
   <si>
     <t>Jahr: 2018 (Gesamtfoerderung 6B: 28.7 Millionen m3)</t>
+  </si>
+  <si>
+    <t>Jahr: 2016 (Gesamtfoerderung 6B: 7.0 Millionen m3)</t>
+  </si>
+  <si>
+    <t>Jahr: 2017 (Gesamtfoerderung 6B: 21.4 Millionen m3)</t>
   </si>
 </sst>
 </file>
@@ -1268,19 +1287,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.15904761904761905</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>13.36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>53.8705588095238</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>54.544123214285705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1457,19 +1476,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.16875000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>12.150000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>55.19666999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>56.057477361111118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1582,6 +1601,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1630,6 +1664,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1678,6 +1727,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1726,6 +1790,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1774,6 +1853,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1822,6 +1916,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1870,6 +1979,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.750802916666643</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.342512916666664</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1918,6 +2042,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16875000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.19666999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.057477361111118</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1966,6 +2105,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2034,7 +2188,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="126" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="126" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2370,8 +2524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3657,83 +3811,83 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8">
         <f>COUNTIFS('R110_Q100'!B$2:B104,C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="8" t="e">
+        <v>28</v>
+      </c>
+      <c r="D18" s="8">
         <f>AVERAGE('R110_Q100'!$C$2:$C107)</f>
-        <v>#DIV/0!</v>
+        <v>0.15904761904761905</v>
       </c>
       <c r="E18" s="8">
         <f>SUM('R110_Q100'!$C$2:$C107)</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="8" t="e">
+        <v>13.36</v>
+      </c>
+      <c r="F18" s="8">
         <f>AVERAGE('R110_Q100'!$D$2:$D107)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="8" t="e">
+        <v>53.8705588095238</v>
+      </c>
+      <c r="G18" s="8">
         <f>AVERAGE('R110_Q100'!$E$2:$E107)</f>
-        <v>#DIV/0!</v>
+        <v>54.544123214285705</v>
       </c>
       <c r="H18" s="8">
         <f>COUNTIFS('R110_Q100'!$B$2:$B107,H$3,Rplan_Q100!$C$2:$C107,"&gt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="8" t="e">
+        <v>4</v>
+      </c>
+      <c r="I18" s="8">
         <f>AVERAGEIFS('R110_Q100'!$C$2:$C107,'R110_Q100'!$B$2:$B107,H$3)</f>
-        <v>#DIV/0!</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="J18" s="8">
         <f>SUMIFS('R110_Q100'!$C$2:$C107,Rplan_Q100!$B$2:$B107,Summary!H$3)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="8" t="e">
+        <v>2</v>
+      </c>
+      <c r="K18" s="8">
         <f>AVERAGEIFS('R110_Q100'!$D$2:$D107,'R110_Q100'!$B$2:$B107,H$3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L18" s="8" t="e">
+        <v>65.895463214285712</v>
+      </c>
+      <c r="L18" s="8">
         <f>AVERAGEIFS('R110_Q100'!$E$2:$E107,'R110_Q100'!$B$2:$B107,H$3)</f>
-        <v>#DIV/0!</v>
+        <v>66.22730571428572</v>
       </c>
       <c r="M18" s="8">
         <f>COUNTIFS('R110_Q100'!$B$2:$B107,M$3,'R110_Q100'!$C$2:$C107,"&gt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="8" t="e">
+        <v>15</v>
+      </c>
+      <c r="N18" s="8">
         <f>AVERAGEIFS('R110_Q100'!$C$2:$C107,'R110_Q100'!$B$2:$B107,M$3)</f>
-        <v>#DIV/0!</v>
+        <v>0.23285714285714285</v>
       </c>
       <c r="O18" s="8">
         <f>SUMIFS('R110_Q100'!$C$2:$C107,'R110_Q100'!$B$2:$B107,Summary!M$3)</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="8" t="e">
+        <v>6.52</v>
+      </c>
+      <c r="P18" s="8">
         <f>AVERAGEIFS('R110_Q100'!$D$2:$D107,'R110_Q100'!$B$2:$B107,M$3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q18" s="8" t="e">
+        <v>54.051245357142861</v>
+      </c>
+      <c r="Q18" s="8">
         <f>AVERAGEIFS('R110_Q100'!$E$2:$E107,'R110_Q100'!$B$2:$B107,M$3)</f>
-        <v>#DIV/0!</v>
+        <v>55.197879642857153</v>
       </c>
       <c r="R18" s="8">
         <f>COUNTIFS('R110_Q100'!$B$2:$B107,R$3,'R110_Q100'!$C$2:$C107,"&gt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="8" t="e">
+        <v>23</v>
+      </c>
+      <c r="S18" s="8">
         <f>AVERAGEIFS('R110_Q100'!$C$2:$C107,'R110_Q100'!$B$2:$B107,R$3)</f>
-        <v>#DIV/0!</v>
+        <v>0.17285714285714288</v>
       </c>
       <c r="T18" s="8">
         <f>SUMIFS('R110_Q100'!$C$2:$C107,'R110_Q100'!$B$2:$B107,Summary!R$3)</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="8" t="e">
+        <v>4.8400000000000007</v>
+      </c>
+      <c r="U18" s="8">
         <f>AVERAGEIFS('R110_Q100'!$D$2:$D107,'R110_Q100'!$B$2:$B107,R$3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V18" s="8" t="e">
+        <v>41.664967857142855</v>
+      </c>
+      <c r="V18" s="8">
         <f>AVERAGEIFS('R110_Q100'!$E$2:$E107,'R110_Q100'!$B$2:$B107,R$3)</f>
-        <v>#DIV/0!</v>
+        <v>42.207184285714284</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
@@ -3913,85 +4067,85 @@
         <v>127</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="8" t="e">
-        <f>COUNTIFS([1]R120_Q100!B$2:B107,C$3)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D21" s="8" t="e">
-        <f>AVERAGE('R110_Q100'!$C$2:$C110)</f>
-        <v>#DIV/0!</v>
+      <c r="C21" s="8">
+        <f>COUNTIFS('R120_Q100'!B$2:B107,C$3)</f>
+        <v>24</v>
+      </c>
+      <c r="D21" s="8">
+        <f>AVERAGE('R120_Q100'!$C$2:$C110)</f>
+        <v>0.16875000000000004</v>
       </c>
       <c r="E21" s="8">
-        <f>SUM('R110_Q100'!$C$2:$C110)</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="8" t="e">
-        <f>AVERAGE('R110_Q100'!$D$2:$D110)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21" s="8" t="e">
-        <f>AVERAGE('R110_Q100'!$E$2:$E110)</f>
-        <v>#DIV/0!</v>
+        <f>SUM('R120_Q100'!$C$2:$C110)</f>
+        <v>12.150000000000002</v>
+      </c>
+      <c r="F21" s="8">
+        <f>AVERAGE('R120_Q100'!$D$2:$D110)</f>
+        <v>55.19666999999999</v>
+      </c>
+      <c r="G21" s="8">
+        <f>AVERAGE('R120_Q100'!$E$2:$E110)</f>
+        <v>56.057477361111118</v>
       </c>
       <c r="H21" s="8">
-        <f>COUNTIFS('R110_Q100'!$B$2:$B110,H$3,Rplan_Q100!$C$2:$C110,"&gt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="8" t="e">
-        <f>AVERAGEIFS('R110_Q100'!$C$2:$C110,'R110_Q100'!$B$2:$B110,H$3)</f>
-        <v>#DIV/0!</v>
+        <f>COUNTIFS('R120_Q100'!$B$2:$B110,H$3,'R120_Q100'!$C$2:$C110,"&gt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="I21" s="8">
+        <f>AVERAGEIFS('R120_Q100'!$C$2:$C110,'R120_Q100'!$B$2:$B110,H$3)</f>
+        <v>6.0416666666666674E-2</v>
       </c>
       <c r="J21" s="8">
-        <f>SUMIFS('R110_Q100'!$C$2:$C110,Rplan_Q100!$B$2:$B110,Summary!H$3)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="8" t="e">
-        <f>AVERAGEIFS('R110_Q100'!$D$2:$D110,'R110_Q100'!$B$2:$B110,H$3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L21" s="8" t="e">
-        <f>AVERAGEIFS('R110_Q100'!$E$2:$E110,'R110_Q100'!$B$2:$B110,H$3)</f>
-        <v>#DIV/0!</v>
+        <f>SUMIFS('R120_Q100'!$C$2:$C110,Rplan_Q100!$B$2:$B110,Summary!H$3)</f>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="K21" s="8">
+        <f>AVERAGEIFS('R120_Q100'!$D$2:$D110,'R120_Q100'!$B$2:$B110,H$3)</f>
+        <v>66.733790833333344</v>
+      </c>
+      <c r="L21" s="8">
+        <f>AVERAGEIFS('R120_Q100'!$E$2:$E110,'R120_Q100'!$B$2:$B110,H$3)</f>
+        <v>67.015730000000005</v>
       </c>
       <c r="M21" s="8">
-        <f>COUNTIFS('R110_Q100'!$B$2:$B110,M$3,'R110_Q100'!$C$2:$C110,"&gt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="8" t="e">
-        <f>AVERAGEIFS('R110_Q100'!$C$2:$C110,'R110_Q100'!$B$2:$B110,M$3)</f>
-        <v>#DIV/0!</v>
+        <f>COUNTIFS('R120_Q100'!$B$2:$B110,M$3,'R120_Q100'!$C$2:$C110,"&gt;0")</f>
+        <v>12</v>
+      </c>
+      <c r="N21" s="8">
+        <f>AVERAGEIFS('R120_Q100'!$C$2:$C110,'R120_Q100'!$B$2:$B110,M$3)</f>
+        <v>0.22291666666666665</v>
       </c>
       <c r="O21" s="8">
-        <f>SUMIFS('R110_Q100'!$C$2:$C110,'R110_Q100'!$B$2:$B110,Summary!M$3)</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="8" t="e">
-        <f>AVERAGEIFS('R110_Q100'!$D$2:$D110,'R110_Q100'!$B$2:$B110,M$3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q21" s="8" t="e">
-        <f>AVERAGEIFS('R110_Q100'!$E$2:$E110,'R110_Q100'!$B$2:$B110,M$3)</f>
-        <v>#DIV/0!</v>
+        <f>SUMIFS('R120_Q100'!$C$2:$C110,'R120_Q100'!$B$2:$B110,Summary!M$3)</f>
+        <v>5.35</v>
+      </c>
+      <c r="P21" s="8">
+        <f>AVERAGEIFS('R120_Q100'!$D$2:$D110,'R120_Q100'!$B$2:$B110,M$3)</f>
+        <v>56.140296249999999</v>
+      </c>
+      <c r="Q21" s="8">
+        <f>AVERAGEIFS('R120_Q100'!$E$2:$E110,'R120_Q100'!$B$2:$B110,M$3)</f>
+        <v>57.47361999999999</v>
       </c>
       <c r="R21" s="8">
-        <f>COUNTIFS('R110_Q100'!$B$2:$B110,R$3,'R110_Q100'!$C$2:$C110,"&gt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="8" t="e">
-        <f>AVERAGEIFS('R110_Q100'!$C$2:$C110,'R110_Q100'!$B$2:$B110,R$3)</f>
-        <v>#DIV/0!</v>
+        <f>COUNTIFS('R120_Q100'!$B$2:$B110,R$3,'R120_Q100'!$C$2:$C110,"&gt;0")</f>
+        <v>19</v>
+      </c>
+      <c r="S21" s="8">
+        <f>AVERAGEIFS('R120_Q100'!$C$2:$C110,'R120_Q100'!$B$2:$B110,R$3)</f>
+        <v>0.22291666666666668</v>
       </c>
       <c r="T21" s="8">
-        <f>SUMIFS('R110_Q100'!$C$2:$C110,'R110_Q100'!$B$2:$B110,Summary!R$3)</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="8" t="e">
-        <f>AVERAGEIFS('R110_Q100'!$D$2:$D110,'R110_Q100'!$B$2:$B110,R$3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V21" s="8" t="e">
-        <f>AVERAGEIFS('R110_Q100'!$E$2:$E110,'R110_Q100'!$B$2:$B110,R$3)</f>
-        <v>#DIV/0!</v>
+        <f>SUMIFS('R120_Q100'!$C$2:$C110,'R120_Q100'!$B$2:$B110,Summary!R$3)</f>
+        <v>5.3500000000000005</v>
+      </c>
+      <c r="U21" s="8">
+        <f>AVERAGEIFS('R120_Q100'!$D$2:$D110,'R120_Q100'!$B$2:$B110,R$3)</f>
+        <v>42.715922916666671</v>
+      </c>
+      <c r="V21" s="8">
+        <f>AVERAGEIFS('R120_Q100'!$E$2:$E110,'R120_Q100'!$B$2:$B110,R$3)</f>
+        <v>43.683082083333325</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
@@ -4000,83 +4154,83 @@
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="8">
-        <f>COUNTIFS('R110_Q150'!B$2:B108,C$3)</f>
+        <f>COUNTIFS('R120_Q150'!B$2:B108,C$3)</f>
         <v>0</v>
       </c>
       <c r="D22" s="8" t="e">
-        <f>AVERAGE('R110_Q150'!$C$2:$C111)</f>
+        <f>AVERAGE('R120_Q150'!$C$2:$C111)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E22" s="8">
-        <f>SUM('R110_Q150'!$C$2:$C111)</f>
+        <f>SUM('R120_Q150'!$C$2:$C111)</f>
         <v>0</v>
       </c>
       <c r="F22" s="8" t="e">
-        <f>AVERAGE('R110_Q150'!$D$2:$D111)</f>
+        <f>AVERAGE('R120_Q150'!$D$2:$D111)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G22" s="8" t="e">
-        <f>AVERAGE('R110_Q150'!$E$2:$E111)</f>
+        <f>AVERAGE('R120_Q150'!$E$2:$E111)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H22" s="8">
-        <f>COUNTIFS('R110_Q150'!$B$2:$B111,H$3,Rplan_Q150!$C$2:$C111,"&gt;0")</f>
+        <f>COUNTIFS('R120_Q150'!$B$2:$B111,H$3,'R120_Q150'!$C$2:$C111,"&gt;0")</f>
         <v>0</v>
       </c>
       <c r="I22" s="8" t="e">
-        <f>AVERAGEIFS('R110_Q150'!$C$2:$C111,'R110_Q150'!$B$2:$B111,H$3)</f>
+        <f>AVERAGEIFS('R120_Q150'!$C$2:$C111,'R120_Q150'!$B$2:$B111,H$3)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J22" s="8">
-        <f>SUMIFS('R110_Q150'!$C$2:$C111,Rplan_Q150!$B$2:$B111,Summary!H$3)</f>
+        <f>SUMIFS('R120_Q150'!$C$2:$C111,Rplan_Q150!$B$2:$B111,Summary!H$3)</f>
         <v>0</v>
       </c>
       <c r="K22" s="8" t="e">
-        <f>AVERAGEIFS('R110_Q150'!$D$2:$D111,'R110_Q150'!$B$2:$B111,H$3)</f>
+        <f>AVERAGEIFS('R120_Q150'!$D$2:$D111,'R120_Q150'!$B$2:$B111,H$3)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L22" s="8" t="e">
-        <f>AVERAGEIFS('R110_Q150'!$E$2:$E111,'R110_Q150'!$B$2:$B111,H$3)</f>
+        <f>AVERAGEIFS('R120_Q150'!$E$2:$E111,'R120_Q150'!$B$2:$B111,H$3)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M22" s="8">
-        <f>COUNTIFS('R110_Q150'!$B$2:$B111,M$3,'R110_Q150'!$C$2:$C111,"&gt;0")</f>
+        <f>COUNTIFS('R120_Q150'!$B$2:$B111,M$3,'R120_Q150'!$C$2:$C111,"&gt;0")</f>
         <v>0</v>
       </c>
       <c r="N22" s="8" t="e">
-        <f>AVERAGEIFS('R110_Q150'!$C$2:$C111,'R110_Q150'!$B$2:$B111,M$3)</f>
+        <f>AVERAGEIFS('R120_Q150'!$C$2:$C111,'R120_Q150'!$B$2:$B111,M$3)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O22" s="8">
-        <f>SUMIFS('R110_Q150'!$C$2:$C111,'R110_Q150'!$B$2:$B111,Summary!M$3)</f>
+        <f>SUMIFS('R120_Q150'!$C$2:$C111,'R120_Q150'!$B$2:$B111,Summary!M$3)</f>
         <v>0</v>
       </c>
       <c r="P22" s="8" t="e">
-        <f>AVERAGEIFS('R110_Q150'!$D$2:$D111,'R110_Q150'!$B$2:$B111,M$3)</f>
+        <f>AVERAGEIFS('R120_Q150'!$D$2:$D111,'R120_Q150'!$B$2:$B111,M$3)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q22" s="8" t="e">
-        <f>AVERAGEIFS('R110_Q150'!$E$2:$E111,'R110_Q150'!$B$2:$B111,M$3)</f>
+        <f>AVERAGEIFS('R120_Q150'!$E$2:$E111,'R120_Q150'!$B$2:$B111,M$3)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R22" s="8">
-        <f>COUNTIFS('R110_Q150'!$B$2:$B111,R$3,'R110_Q150'!$C$2:$C111,"&gt;0")</f>
+        <f>COUNTIFS('R120_Q150'!$B$2:$B111,R$3,'R120_Q150'!$C$2:$C111,"&gt;0")</f>
         <v>0</v>
       </c>
       <c r="S22" s="8" t="e">
-        <f>AVERAGEIFS('R110_Q150'!$C$2:$C111,'R110_Q150'!$B$2:$B111,R$3)</f>
+        <f>AVERAGEIFS('R120_Q150'!$C$2:$C111,'R120_Q150'!$B$2:$B111,R$3)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T22" s="8">
-        <f>SUMIFS('R110_Q150'!$C$2:$C111,'R110_Q150'!$B$2:$B111,Summary!R$3)</f>
+        <f>SUMIFS('R120_Q150'!$C$2:$C111,'R120_Q150'!$B$2:$B111,Summary!R$3)</f>
         <v>0</v>
       </c>
       <c r="U22" s="8" t="e">
-        <f>AVERAGEIFS('R110_Q150'!$D$2:$D111,'R110_Q150'!$B$2:$B111,R$3)</f>
+        <f>AVERAGEIFS('R120_Q150'!$D$2:$D111,'R120_Q150'!$B$2:$B111,R$3)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V22" s="8" t="e">
-        <f>AVERAGEIFS('R110_Q150'!$E$2:$E111,'R110_Q150'!$B$2:$B111,R$3)</f>
+        <f>AVERAGEIFS('R120_Q150'!$E$2:$E111,'R120_Q150'!$B$2:$B111,R$3)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4085,54 +4239,774 @@
         <v>121</v>
       </c>
       <c r="B23" s="4"/>
+      <c r="C23" s="8">
+        <f>COUNTIFS('R130_Q50'!B$2:B109,C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="8" t="e">
+        <f>AVERAGE('R130_Q50'!$C$2:$C112)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E23" s="8">
+        <f>SUM('R130_Q50'!$C$2:$C112)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="8" t="e">
+        <f>AVERAGE('R130_Q50'!$D$2:$D112)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G23" s="8" t="e">
+        <f>AVERAGE('R130_Q50'!$E$2:$E112)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H23" s="8">
+        <f>COUNTIFS('R130_Q50'!$B$2:$B112,H$3,'R130_Q50'!$C$2:$C112,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="8" t="e">
+        <f>AVERAGEIFS('R130_Q50'!$C$2:$C112,'R130_Q50'!$B$2:$B112,H$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23" s="8">
+        <f>SUMIFS('R130_Q50'!$C$2:$C112,Rplan_Q50!$B$2:$B112,Summary!H$3)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="8" t="e">
+        <f>AVERAGEIFS('R130_Q50'!$D$2:$D112,'R130_Q50'!$B$2:$B112,H$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L23" s="8" t="e">
+        <f>AVERAGEIFS('R130_Q50'!$E$2:$E112,'R130_Q50'!$B$2:$B112,H$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M23" s="8">
+        <f>COUNTIFS('R130_Q50'!$B$2:$B112,M$3,'R130_Q50'!$C$2:$C112,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="8" t="e">
+        <f>AVERAGEIFS('R130_Q50'!$C$2:$C112,'R130_Q50'!$B$2:$B112,M$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O23" s="8">
+        <f>SUMIFS('R130_Q50'!$C$2:$C112,'R130_Q50'!$B$2:$B112,Summary!M$3)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="8" t="e">
+        <f>AVERAGEIFS('R130_Q50'!$D$2:$D112,'R130_Q50'!$B$2:$B112,M$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q23" s="8" t="e">
+        <f>AVERAGEIFS('R130_Q50'!$E$2:$E112,'R130_Q50'!$B$2:$B112,M$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R23" s="8">
+        <f>COUNTIFS('R130_Q50'!$B$2:$B112,R$3,'R130_Q50'!$C$2:$C112,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="8" t="e">
+        <f>AVERAGEIFS('R130_Q50'!$C$2:$C112,'R130_Q50'!$B$2:$B112,R$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T23" s="8">
+        <f>SUMIFS('R130_Q50'!$C$2:$C112,'R130_Q50'!$B$2:$B112,Summary!R$3)</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="8" t="e">
+        <f>AVERAGEIFS('R130_Q50'!$D$2:$D112,'R130_Q50'!$B$2:$B112,R$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V23" s="8" t="e">
+        <f>AVERAGEIFS('R130_Q50'!$E$2:$E112,'R130_Q50'!$B$2:$B112,R$3)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B24" s="4"/>
+      <c r="C24" s="8">
+        <f>COUNTIFS('R130_Q100'!B$2:B110,C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="8" t="e">
+        <f>AVERAGE('R130_Q100'!$C$2:$C113)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="8">
+        <f>SUM('R130_Q100'!$C$2:$C113)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="8" t="e">
+        <f>AVERAGE('R130_Q100'!$D$2:$D113)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="8" t="e">
+        <f>AVERAGE('R130_Q100'!$E$2:$E113)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" s="8">
+        <f>COUNTIFS('R130_Q100'!$B$2:$B113,H$3,'R130_Q100'!$C$2:$C113,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="8" t="e">
+        <f>AVERAGEIFS('R130_Q100'!$C$2:$C113,'R130_Q100'!$B$2:$B113,H$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24" s="8">
+        <f>SUMIFS('R130_Q100'!$C$2:$C113,Rplan_Q100!$B$2:$B113,Summary!H$3)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="8" t="e">
+        <f>AVERAGEIFS('R130_Q100'!$D$2:$D113,'R130_Q100'!$B$2:$B113,H$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L24" s="8" t="e">
+        <f>AVERAGEIFS('R130_Q100'!$E$2:$E113,'R130_Q100'!$B$2:$B113,H$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M24" s="8">
+        <f>COUNTIFS('R130_Q100'!$B$2:$B113,M$3,'R130_Q100'!$C$2:$C113,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="8" t="e">
+        <f>AVERAGEIFS('R130_Q100'!$C$2:$C113,'R130_Q100'!$B$2:$B113,M$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O24" s="8">
+        <f>SUMIFS('R130_Q100'!$C$2:$C113,'R130_Q100'!$B$2:$B113,Summary!M$3)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="8" t="e">
+        <f>AVERAGEIFS('R130_Q100'!$D$2:$D113,'R130_Q100'!$B$2:$B113,M$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q24" s="8" t="e">
+        <f>AVERAGEIFS('R130_Q100'!$E$2:$E113,'R130_Q100'!$B$2:$B113,M$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R24" s="8">
+        <f>COUNTIFS('R130_Q100'!$B$2:$B113,R$3,'R130_Q100'!$C$2:$C113,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="8" t="e">
+        <f>AVERAGEIFS('R130_Q100'!$C$2:$C113,'R130_Q100'!$B$2:$B113,R$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T24" s="8">
+        <f>SUMIFS('R130_Q100'!$C$2:$C113,'R130_Q100'!$B$2:$B113,Summary!R$3)</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="8" t="e">
+        <f>AVERAGEIFS('R130_Q100'!$D$2:$D113,'R130_Q100'!$B$2:$B113,R$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V24" s="8" t="e">
+        <f>AVERAGEIFS('R130_Q100'!$E$2:$E113,'R130_Q100'!$B$2:$B113,R$3)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B25" s="4"/>
+      <c r="C25" s="8">
+        <f>COUNTIFS('R130_Q150'!B$2:B111,C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="8" t="e">
+        <f>AVERAGE('R130_Q150'!$C$2:$C114)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="8">
+        <f>SUM('R130_Q150'!$C$2:$C114)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="8" t="e">
+        <f>AVERAGE('R130_Q150'!$D$2:$D114)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="8" t="e">
+        <f>AVERAGE('R130_Q150'!$E$2:$E114)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="8">
+        <f>COUNTIFS('R130_Q150'!$B$2:$B114,H$3,'R130_Q150'!$C$2:$C114,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="8" t="e">
+        <f>AVERAGEIFS('R130_Q150'!$C$2:$C114,'R130_Q150'!$B$2:$B114,H$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" s="8">
+        <f>SUMIFS('R130_Q150'!$C$2:$C114,Rplan_Q150!$B$2:$B114,Summary!H$3)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="8" t="e">
+        <f>AVERAGEIFS('R130_Q150'!$D$2:$D114,'R130_Q150'!$B$2:$B114,H$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" s="8" t="e">
+        <f>AVERAGEIFS('R130_Q150'!$E$2:$E114,'R130_Q150'!$B$2:$B114,H$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="8">
+        <f>COUNTIFS('R130_Q150'!$B$2:$B114,M$3,'R130_Q150'!$C$2:$C114,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="8" t="e">
+        <f>AVERAGEIFS('R130_Q150'!$C$2:$C114,'R130_Q150'!$B$2:$B114,M$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O25" s="8">
+        <f>SUMIFS('R130_Q150'!$C$2:$C114,'R130_Q150'!$B$2:$B114,Summary!M$3)</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="8" t="e">
+        <f>AVERAGEIFS('R130_Q150'!$D$2:$D114,'R130_Q150'!$B$2:$B114,M$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q25" s="8" t="e">
+        <f>AVERAGEIFS('R130_Q150'!$E$2:$E114,'R130_Q150'!$B$2:$B114,M$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R25" s="8">
+        <f>COUNTIFS('R130_Q150'!$B$2:$B114,R$3,'R130_Q150'!$C$2:$C114,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="8" t="e">
+        <f>AVERAGEIFS('R130_Q150'!$C$2:$C114,'R130_Q150'!$B$2:$B114,R$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T25" s="8">
+        <f>SUMIFS('R130_Q150'!$C$2:$C114,'R130_Q150'!$B$2:$B114,Summary!R$3)</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="8" t="e">
+        <f>AVERAGEIFS('R130_Q150'!$D$2:$D114,'R130_Q150'!$B$2:$B114,R$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V25" s="8" t="e">
+        <f>AVERAGEIFS('R130_Q150'!$E$2:$E114,'R130_Q150'!$B$2:$B114,R$3)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B26" s="4"/>
+      <c r="C26" s="8">
+        <f>COUNTIFS('R140_Q50'!B$2:B112,C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="8" t="e">
+        <f>AVERAGE('R140_Q50'!$C$2:$C115)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="8">
+        <f>SUM('R140_Q50'!$C$2:$C115)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="8" t="e">
+        <f>AVERAGE('R140_Q50'!$D$2:$D115)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="8" t="e">
+        <f>AVERAGE('R140_Q50'!$E$2:$E115)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" s="8">
+        <f>COUNTIFS('R140_Q50'!$B$2:$B115,H$3,'R140_Q50'!$C$2:$C115,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="8" t="e">
+        <f>AVERAGEIFS('R140_Q50'!$C$2:$C115,'R140_Q50'!$B$2:$B115,H$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J26" s="8">
+        <f>SUMIFS('R140_Q50'!$C$2:$C115,Rplan_Q50!$B$2:$B115,Summary!H$3)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="8" t="e">
+        <f>AVERAGEIFS('R140_Q50'!$D$2:$D115,'R140_Q50'!$B$2:$B115,H$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" s="8" t="e">
+        <f>AVERAGEIFS('R140_Q50'!$E$2:$E115,'R140_Q50'!$B$2:$B115,H$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" s="8">
+        <f>COUNTIFS('R140_Q50'!$B$2:$B115,M$3,'R140_Q50'!$C$2:$C115,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="8" t="e">
+        <f>AVERAGEIFS('R140_Q50'!$C$2:$C115,'R140_Q50'!$B$2:$B115,M$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O26" s="8">
+        <f>SUMIFS('R140_Q50'!$C$2:$C115,'R140_Q50'!$B$2:$B115,Summary!M$3)</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="8" t="e">
+        <f>AVERAGEIFS('R140_Q50'!$D$2:$D115,'R140_Q50'!$B$2:$B115,M$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q26" s="8" t="e">
+        <f>AVERAGEIFS('R140_Q50'!$E$2:$E115,'R140_Q50'!$B$2:$B115,M$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R26" s="8">
+        <f>COUNTIFS('R140_Q50'!$B$2:$B115,R$3,'R140_Q50'!$C$2:$C115,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="8" t="e">
+        <f>AVERAGEIFS('R140_Q50'!$C$2:$C115,'R140_Q50'!$B$2:$B115,R$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T26" s="8">
+        <f>SUMIFS('R140_Q50'!$C$2:$C115,'R140_Q50'!$B$2:$B115,Summary!R$3)</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="8" t="e">
+        <f>AVERAGEIFS('R140_Q50'!$D$2:$D115,'R140_Q50'!$B$2:$B115,R$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V26" s="8" t="e">
+        <f>AVERAGEIFS('R140_Q50'!$E$2:$E115,'R140_Q50'!$B$2:$B115,R$3)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B27" s="4"/>
+      <c r="C27" s="8">
+        <f>COUNTIFS('R140_Q100'!B$2:B113,C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="8" t="e">
+        <f>AVERAGE('R140_Q100'!$C$2:$C116)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="8">
+        <f>SUM('R140_Q100'!$C$2:$C116)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="8" t="e">
+        <f>AVERAGE('R140_Q100'!$D$2:$D116)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="8" t="e">
+        <f>AVERAGE('R140_Q100'!$E$2:$E116)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" s="8">
+        <f>COUNTIFS('R140_Q100'!$B$2:$B116,H$3,'R140_Q100'!$C$2:$C116,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="8" t="e">
+        <f>AVERAGEIFS('R140_Q100'!$C$2:$C116,'R140_Q100'!$B$2:$B116,H$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" s="8">
+        <f>SUMIFS('R140_Q100'!$C$2:$C116,Rplan_Q100!$B$2:$B116,Summary!H$3)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="8" t="e">
+        <f>AVERAGEIFS('R140_Q100'!$D$2:$D116,'R140_Q100'!$B$2:$B116,H$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L27" s="8" t="e">
+        <f>AVERAGEIFS('R140_Q100'!$E$2:$E116,'R140_Q100'!$B$2:$B116,H$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M27" s="8">
+        <f>COUNTIFS('R140_Q100'!$B$2:$B116,M$3,'R140_Q100'!$C$2:$C116,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="8" t="e">
+        <f>AVERAGEIFS('R140_Q100'!$C$2:$C116,'R140_Q100'!$B$2:$B116,M$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O27" s="8">
+        <f>SUMIFS('R140_Q100'!$C$2:$C116,'R140_Q100'!$B$2:$B116,Summary!M$3)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="8" t="e">
+        <f>AVERAGEIFS('R140_Q100'!$D$2:$D116,'R140_Q100'!$B$2:$B116,M$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q27" s="8" t="e">
+        <f>AVERAGEIFS('R140_Q100'!$E$2:$E116,'R140_Q100'!$B$2:$B116,M$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R27" s="8">
+        <f>COUNTIFS('R140_Q100'!$B$2:$B116,R$3,'R140_Q100'!$C$2:$C116,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="8" t="e">
+        <f>AVERAGEIFS('R140_Q100'!$C$2:$C116,'R140_Q100'!$B$2:$B116,R$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T27" s="8">
+        <f>SUMIFS('R140_Q100'!$C$2:$C116,'R140_Q100'!$B$2:$B116,Summary!R$3)</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="8" t="e">
+        <f>AVERAGEIFS('R140_Q100'!$D$2:$D116,'R140_Q100'!$B$2:$B116,R$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V27" s="8" t="e">
+        <f>AVERAGEIFS('R140_Q100'!$E$2:$E116,'R140_Q100'!$B$2:$B116,R$3)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B28" s="4"/>
+      <c r="C28" s="8">
+        <f>COUNTIFS('R140_Q150'!B$2:B114,C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="8" t="e">
+        <f>AVERAGE('R140_Q150'!$C$2:$C117)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" s="8">
+        <f>SUM('R140_Q150'!$C$2:$C117)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="8" t="e">
+        <f>AVERAGE('R140_Q150'!$D$2:$D117)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="8" t="e">
+        <f>AVERAGE('R140_Q150'!$E$2:$E117)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" s="8">
+        <f>COUNTIFS('R140_Q150'!$B$2:$B117,H$3,'R140_Q150'!$C$2:$C117,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="8" t="e">
+        <f>AVERAGEIFS('R140_Q150'!$C$2:$C117,'R140_Q150'!$B$2:$B117,H$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" s="8">
+        <f>SUMIFS('R140_Q150'!$C$2:$C117,Rplan_Q150!$B$2:$B117,Summary!H$3)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="8" t="e">
+        <f>AVERAGEIFS('R140_Q150'!$D$2:$D117,'R140_Q150'!$B$2:$B117,H$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L28" s="8" t="e">
+        <f>AVERAGEIFS('R140_Q150'!$E$2:$E117,'R140_Q150'!$B$2:$B117,H$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M28" s="8">
+        <f>COUNTIFS('R140_Q150'!$B$2:$B117,M$3,'R140_Q150'!$C$2:$C117,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="8" t="e">
+        <f>AVERAGEIFS('R140_Q150'!$C$2:$C117,'R140_Q150'!$B$2:$B117,M$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O28" s="8">
+        <f>SUMIFS('R140_Q150'!$C$2:$C117,'R140_Q150'!$B$2:$B117,Summary!M$3)</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="8" t="e">
+        <f>AVERAGEIFS('R140_Q150'!$D$2:$D117,'R140_Q150'!$B$2:$B117,M$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q28" s="8" t="e">
+        <f>AVERAGEIFS('R140_Q150'!$E$2:$E117,'R140_Q150'!$B$2:$B117,M$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R28" s="8">
+        <f>COUNTIFS('R140_Q150'!$B$2:$B117,R$3,'R140_Q150'!$C$2:$C117,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="8" t="e">
+        <f>AVERAGEIFS('R140_Q150'!$C$2:$C117,'R140_Q150'!$B$2:$B117,R$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T28" s="8">
+        <f>SUMIFS('R140_Q150'!$C$2:$C117,'R140_Q150'!$B$2:$B117,Summary!R$3)</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="8" t="e">
+        <f>AVERAGEIFS('R140_Q150'!$D$2:$D117,'R140_Q150'!$B$2:$B117,R$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V28" s="8" t="e">
+        <f>AVERAGEIFS('R140_Q150'!$E$2:$E117,'R140_Q150'!$B$2:$B117,R$3)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B29" s="4"/>
+      <c r="C29" s="8">
+        <f>COUNTIFS('R120_Q50'!B$2:B115,C$3)</f>
+        <v>24</v>
+      </c>
+      <c r="D29" s="8">
+        <f>AVERAGE('R120_Q50'!$C$2:$C118)</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E29" s="8">
+        <f>SUM('R120_Q50'!$C$2:$C118)</f>
+        <v>8</v>
+      </c>
+      <c r="F29" s="8">
+        <f>AVERAGE('R120_Q50'!$D$2:$D118)</f>
+        <v>64.750802916666643</v>
+      </c>
+      <c r="G29" s="8">
+        <f>AVERAGE('R120_Q50'!$E$2:$E118)</f>
+        <v>65.342512916666664</v>
+      </c>
+      <c r="H29" s="8">
+        <f>COUNTIFS('R120_Q50'!$B$2:$B118,H$3,'R120_Q50'!$C$2:$C118,"&gt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="I29" s="8">
+        <f>AVERAGEIFS('R120_Q50'!$C$2:$C118,'R120_Q50'!$B$2:$B118,H$3)</f>
+        <v>3.0416666666666665E-2</v>
+      </c>
+      <c r="J29" s="8">
+        <f>SUMIFS('R120_Q50'!$C$2:$C118,Rplan_Q50!$B$2:$B118,Summary!H$3)</f>
+        <v>0.73</v>
+      </c>
+      <c r="K29" s="8">
+        <f>AVERAGEIFS('R120_Q50'!$D$2:$D118,'R120_Q50'!$B$2:$B118,H$3)</f>
+        <v>70.774749999999997</v>
+      </c>
+      <c r="L29" s="8">
+        <f>AVERAGEIFS('R120_Q50'!$E$2:$E118,'R120_Q50'!$B$2:$B118,H$3)</f>
+        <v>70.908837500000004</v>
+      </c>
+      <c r="M29" s="8">
+        <f>COUNTIFS('R120_Q50'!$B$2:$B118,M$3,'R120_Q50'!$C$2:$C118,"&gt;0")</f>
+        <v>12</v>
+      </c>
+      <c r="N29" s="8">
+        <f>AVERAGEIFS('R120_Q50'!$C$2:$C118,'R120_Q50'!$B$2:$B118,M$3)</f>
+        <v>0.1125</v>
+      </c>
+      <c r="O29" s="8">
+        <f>SUMIFS('R120_Q50'!$C$2:$C118,'R120_Q50'!$B$2:$B118,Summary!M$3)</f>
+        <v>2.7</v>
+      </c>
+      <c r="P29" s="8">
+        <f>AVERAGEIFS('R120_Q50'!$D$2:$D118,'R120_Q50'!$B$2:$B118,M$3)</f>
+        <v>65.39286791666666</v>
+      </c>
+      <c r="Q29" s="8">
+        <f>AVERAGEIFS('R120_Q50'!$E$2:$E118,'R120_Q50'!$B$2:$B118,M$3)</f>
+        <v>65.917145416666656</v>
+      </c>
+      <c r="R29" s="8">
+        <f>COUNTIFS('R120_Q50'!$B$2:$B118,R$3,'R120_Q50'!$C$2:$C118,"&gt;0")</f>
+        <v>19</v>
+      </c>
+      <c r="S29" s="8">
+        <f>AVERAGEIFS('R120_Q50'!$C$2:$C118,'R120_Q50'!$B$2:$B118,R$3)</f>
+        <v>0.19041666666666668</v>
+      </c>
+      <c r="T29" s="8">
+        <f>SUMIFS('R120_Q50'!$C$2:$C118,'R120_Q50'!$B$2:$B118,Summary!R$3)</f>
+        <v>4.57</v>
+      </c>
+      <c r="U29" s="8">
+        <f>AVERAGEIFS('R120_Q50'!$D$2:$D118,'R120_Q50'!$B$2:$B118,R$3)</f>
+        <v>58.084790833333329</v>
+      </c>
+      <c r="V29" s="8">
+        <f>AVERAGEIFS('R120_Q50'!$E$2:$E118,'R120_Q50'!$B$2:$B118,R$3)</f>
+        <v>59.201555833333337</v>
+      </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B30" s="4"/>
+      <c r="C30" s="8" t="e">
+        <f>COUNTIFS([1]R120_Q100!B$2:B116,C$3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D30" s="8">
+        <f>AVERAGE('R120_Q100'!$C$2:$C119)</f>
+        <v>0.16875000000000004</v>
+      </c>
+      <c r="E30" s="8">
+        <f>SUM('R120_Q100'!$C$2:$C119)</f>
+        <v>12.150000000000002</v>
+      </c>
+      <c r="F30" s="8">
+        <f>AVERAGE('R120_Q100'!$D$2:$D119)</f>
+        <v>55.19666999999999</v>
+      </c>
+      <c r="G30" s="8">
+        <f>AVERAGE('R120_Q100'!$E$2:$E119)</f>
+        <v>56.057477361111118</v>
+      </c>
+      <c r="H30" s="8">
+        <f>COUNTIFS('R120_Q100'!$B$2:$B119,H$3,'R120_Q100'!$C$2:$C119,"&gt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="I30" s="8">
+        <f>AVERAGEIFS('R120_Q100'!$C$2:$C119,'R120_Q100'!$B$2:$B119,H$3)</f>
+        <v>6.0416666666666674E-2</v>
+      </c>
+      <c r="J30" s="8">
+        <f>SUMIFS('R120_Q100'!$C$2:$C119,Rplan_Q100!$B$2:$B119,Summary!H$3)</f>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="K30" s="8">
+        <f>AVERAGEIFS('R120_Q100'!$D$2:$D119,'R120_Q100'!$B$2:$B119,H$3)</f>
+        <v>66.733790833333344</v>
+      </c>
+      <c r="L30" s="8">
+        <f>AVERAGEIFS('R120_Q100'!$E$2:$E119,'R120_Q100'!$B$2:$B119,H$3)</f>
+        <v>67.015730000000005</v>
+      </c>
+      <c r="M30" s="8">
+        <f>COUNTIFS('R120_Q100'!$B$2:$B119,M$3,'R120_Q100'!$C$2:$C119,"&gt;0")</f>
+        <v>12</v>
+      </c>
+      <c r="N30" s="8">
+        <f>AVERAGEIFS('R120_Q100'!$C$2:$C119,'R120_Q100'!$B$2:$B119,M$3)</f>
+        <v>0.22291666666666665</v>
+      </c>
+      <c r="O30" s="8">
+        <f>SUMIFS('R120_Q100'!$C$2:$C119,'R120_Q100'!$B$2:$B119,Summary!M$3)</f>
+        <v>5.35</v>
+      </c>
+      <c r="P30" s="8">
+        <f>AVERAGEIFS('R120_Q100'!$D$2:$D119,'R120_Q100'!$B$2:$B119,M$3)</f>
+        <v>56.140296249999999</v>
+      </c>
+      <c r="Q30" s="8">
+        <f>AVERAGEIFS('R120_Q100'!$E$2:$E119,'R120_Q100'!$B$2:$B119,M$3)</f>
+        <v>57.47361999999999</v>
+      </c>
+      <c r="R30" s="8">
+        <f>COUNTIFS('R120_Q100'!$B$2:$B119,R$3,'R120_Q100'!$C$2:$C119,"&gt;0")</f>
+        <v>19</v>
+      </c>
+      <c r="S30" s="8">
+        <f>AVERAGEIFS('R120_Q100'!$C$2:$C119,'R120_Q100'!$B$2:$B119,R$3)</f>
+        <v>0.22291666666666668</v>
+      </c>
+      <c r="T30" s="8">
+        <f>SUMIFS('R120_Q100'!$C$2:$C119,'R120_Q100'!$B$2:$B119,Summary!R$3)</f>
+        <v>5.3500000000000005</v>
+      </c>
+      <c r="U30" s="8">
+        <f>AVERAGEIFS('R120_Q100'!$D$2:$D119,'R120_Q100'!$B$2:$B119,R$3)</f>
+        <v>42.715922916666671</v>
+      </c>
+      <c r="V30" s="8">
+        <f>AVERAGEIFS('R120_Q100'!$E$2:$E119,'R120_Q100'!$B$2:$B119,R$3)</f>
+        <v>43.683082083333325</v>
+      </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B31" s="4"/>
+      <c r="C31" s="8">
+        <f>COUNTIFS('R120_Q150'!B$2:B117,C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="8" t="e">
+        <f>AVERAGE('R120_Q150'!$C$2:$C120)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="8">
+        <f>SUM('R120_Q150'!$C$2:$C120)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="8" t="e">
+        <f>AVERAGE('R120_Q150'!$D$2:$D120)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="8" t="e">
+        <f>AVERAGE('R120_Q150'!$E$2:$E120)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="8">
+        <f>COUNTIFS('R120_Q150'!$B$2:$B120,H$3,'R120_Q150'!$C$2:$C120,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="8" t="e">
+        <f>AVERAGEIFS('R120_Q150'!$C$2:$C120,'R120_Q150'!$B$2:$B120,H$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J31" s="8">
+        <f>SUMIFS('R120_Q150'!$C$2:$C120,Rplan_Q150!$B$2:$B120,Summary!H$3)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="8" t="e">
+        <f>AVERAGEIFS('R120_Q150'!$D$2:$D120,'R120_Q150'!$B$2:$B120,H$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L31" s="8" t="e">
+        <f>AVERAGEIFS('R120_Q150'!$E$2:$E120,'R120_Q150'!$B$2:$B120,H$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M31" s="8">
+        <f>COUNTIFS('R120_Q150'!$B$2:$B120,M$3,'R120_Q150'!$C$2:$C120,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="8" t="e">
+        <f>AVERAGEIFS('R120_Q150'!$C$2:$C120,'R120_Q150'!$B$2:$B120,M$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O31" s="8">
+        <f>SUMIFS('R120_Q150'!$C$2:$C120,'R120_Q150'!$B$2:$B120,Summary!M$3)</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="8" t="e">
+        <f>AVERAGEIFS('R120_Q150'!$D$2:$D120,'R120_Q150'!$B$2:$B120,M$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q31" s="8" t="e">
+        <f>AVERAGEIFS('R120_Q150'!$E$2:$E120,'R120_Q150'!$B$2:$B120,M$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R31" s="8">
+        <f>COUNTIFS('R120_Q150'!$B$2:$B120,R$3,'R120_Q150'!$C$2:$C120,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="8" t="e">
+        <f>AVERAGEIFS('R120_Q150'!$C$2:$C120,'R120_Q150'!$B$2:$B120,R$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T31" s="8">
+        <f>SUMIFS('R120_Q150'!$C$2:$C120,'R120_Q150'!$B$2:$B120,Summary!R$3)</f>
+        <v>0</v>
+      </c>
+      <c r="U31" s="8" t="e">
+        <f>AVERAGEIFS('R120_Q150'!$D$2:$D120,'R120_Q150'!$B$2:$B120,R$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V31" s="8" t="e">
+        <f>AVERAGEIFS('R120_Q150'!$E$2:$E120,'R120_Q150'!$B$2:$B120,R$3)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -13290,7 +14164,7 @@
         <v>25.61</v>
       </c>
       <c r="J2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -13322,7 +14196,7 @@
         <v>59.61</v>
       </c>
       <c r="J3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -13354,7 +14228,7 @@
         <v>54.67</v>
       </c>
       <c r="J4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -13386,7 +14260,7 @@
         <v>25.61</v>
       </c>
       <c r="J5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -13418,7 +14292,7 @@
         <v>59.61</v>
       </c>
       <c r="J6" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -13450,7 +14324,7 @@
         <v>54.67</v>
       </c>
       <c r="J7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -13482,7 +14356,7 @@
         <v>25.61</v>
       </c>
       <c r="J8" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -13514,7 +14388,7 @@
         <v>59.61</v>
       </c>
       <c r="J9" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -13546,7 +14420,7 @@
         <v>54.67</v>
       </c>
       <c r="J10" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -13578,7 +14452,7 @@
         <v>25.61</v>
       </c>
       <c r="J11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -13610,7 +14484,7 @@
         <v>59.61</v>
       </c>
       <c r="J12" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -13642,7 +14516,7 @@
         <v>54.67</v>
       </c>
       <c r="J13" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -13674,7 +14548,7 @@
         <v>25.61</v>
       </c>
       <c r="J14" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -13706,7 +14580,7 @@
         <v>59.61</v>
       </c>
       <c r="J15" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -13738,7 +14612,7 @@
         <v>54.67</v>
       </c>
       <c r="J16" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -13770,7 +14644,7 @@
         <v>25.61</v>
       </c>
       <c r="J17" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -13802,7 +14676,7 @@
         <v>59.61</v>
       </c>
       <c r="J18" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -13834,7 +14708,7 @@
         <v>54.67</v>
       </c>
       <c r="J19" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -13866,7 +14740,7 @@
         <v>25.61</v>
       </c>
       <c r="J20" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -13898,7 +14772,7 @@
         <v>59.61</v>
       </c>
       <c r="J21" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -13930,7 +14804,7 @@
         <v>54.67</v>
       </c>
       <c r="J22" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -13962,7 +14836,7 @@
         <v>25.61</v>
       </c>
       <c r="J23" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -13994,7 +14868,7 @@
         <v>59.61</v>
       </c>
       <c r="J24" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -14026,7 +14900,7 @@
         <v>54.67</v>
       </c>
       <c r="J25" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -14058,7 +14932,7 @@
         <v>25.61</v>
       </c>
       <c r="J26" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -14090,7 +14964,7 @@
         <v>59.61</v>
       </c>
       <c r="J27" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -14122,7 +14996,7 @@
         <v>54.67</v>
       </c>
       <c r="J28" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -14154,7 +15028,7 @@
         <v>25.61</v>
       </c>
       <c r="J29" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -14186,7 +15060,7 @@
         <v>59.61</v>
       </c>
       <c r="J30" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -14218,7 +15092,7 @@
         <v>54.67</v>
       </c>
       <c r="J31" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -14250,7 +15124,7 @@
         <v>25.61</v>
       </c>
       <c r="J32" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -14282,7 +15156,7 @@
         <v>59.61</v>
       </c>
       <c r="J33" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -14314,7 +15188,7 @@
         <v>54.67</v>
       </c>
       <c r="J34" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -14346,7 +15220,7 @@
         <v>25.61</v>
       </c>
       <c r="J35" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -14378,7 +15252,7 @@
         <v>59.61</v>
       </c>
       <c r="J36" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -14410,7 +15284,7 @@
         <v>54.67</v>
       </c>
       <c r="J37" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -14442,7 +15316,7 @@
         <v>25.61</v>
       </c>
       <c r="J38" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -14474,7 +15348,7 @@
         <v>59.61</v>
       </c>
       <c r="J39" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -14506,7 +15380,7 @@
         <v>54.67</v>
       </c>
       <c r="J40" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -14538,7 +15412,7 @@
         <v>25.61</v>
       </c>
       <c r="J41" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -14570,7 +15444,7 @@
         <v>59.61</v>
       </c>
       <c r="J42" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -14602,7 +15476,7 @@
         <v>54.67</v>
       </c>
       <c r="J43" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -14634,7 +15508,7 @@
         <v>25.61</v>
       </c>
       <c r="J44" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -14666,7 +15540,7 @@
         <v>59.61</v>
       </c>
       <c r="J45" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -14698,7 +15572,7 @@
         <v>54.67</v>
       </c>
       <c r="J46" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -14730,7 +15604,7 @@
         <v>25.61</v>
       </c>
       <c r="J47" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -14762,7 +15636,7 @@
         <v>59.61</v>
       </c>
       <c r="J48" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -14794,7 +15668,7 @@
         <v>54.67</v>
       </c>
       <c r="J49" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -14826,7 +15700,7 @@
         <v>25.61</v>
       </c>
       <c r="J50" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -14858,7 +15732,7 @@
         <v>59.61</v>
       </c>
       <c r="J51" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -14890,7 +15764,7 @@
         <v>54.67</v>
       </c>
       <c r="J52" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -14922,7 +15796,7 @@
         <v>25.61</v>
       </c>
       <c r="J53" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -14954,7 +15828,7 @@
         <v>59.61</v>
       </c>
       <c r="J54" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -14986,7 +15860,7 @@
         <v>54.67</v>
       </c>
       <c r="J55" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -15018,7 +15892,7 @@
         <v>25.61</v>
       </c>
       <c r="J56" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -15050,7 +15924,7 @@
         <v>59.61</v>
       </c>
       <c r="J57" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -15082,7 +15956,7 @@
         <v>54.67</v>
       </c>
       <c r="J58" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -15114,7 +15988,7 @@
         <v>25.61</v>
       </c>
       <c r="J59" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -15146,7 +16020,7 @@
         <v>59.61</v>
       </c>
       <c r="J60" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -15178,7 +16052,7 @@
         <v>54.67</v>
       </c>
       <c r="J61" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -15210,7 +16084,7 @@
         <v>25.61</v>
       </c>
       <c r="J62" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -15242,7 +16116,7 @@
         <v>59.61</v>
       </c>
       <c r="J63" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -15274,7 +16148,7 @@
         <v>54.67</v>
       </c>
       <c r="J64" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -15306,7 +16180,7 @@
         <v>25.61</v>
       </c>
       <c r="J65" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -15338,7 +16212,7 @@
         <v>59.61</v>
       </c>
       <c r="J66" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -15370,7 +16244,7 @@
         <v>54.67</v>
       </c>
       <c r="J67" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -15402,7 +16276,7 @@
         <v>25.61</v>
       </c>
       <c r="J68" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -15434,7 +16308,7 @@
         <v>59.61</v>
       </c>
       <c r="J69" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -15466,7 +16340,7 @@
         <v>54.67</v>
       </c>
       <c r="J70" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -15498,7 +16372,7 @@
         <v>25.61</v>
       </c>
       <c r="J71" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -15530,7 +16404,7 @@
         <v>59.61</v>
       </c>
       <c r="J72" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -15562,7 +16436,7 @@
         <v>54.67</v>
       </c>
       <c r="J73" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -15594,7 +16468,7 @@
         <v>25.61</v>
       </c>
       <c r="J74" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -15626,7 +16500,7 @@
         <v>59.61</v>
       </c>
       <c r="J75" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -15658,7 +16532,7 @@
         <v>54.67</v>
       </c>
       <c r="J76" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -15690,7 +16564,7 @@
         <v>25.61</v>
       </c>
       <c r="J77" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -15722,7 +16596,7 @@
         <v>59.61</v>
       </c>
       <c r="J78" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -15754,7 +16628,7 @@
         <v>54.67</v>
       </c>
       <c r="J79" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -15786,7 +16660,7 @@
         <v>25.61</v>
       </c>
       <c r="J80" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -15818,7 +16692,7 @@
         <v>59.61</v>
       </c>
       <c r="J81" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -15850,7 +16724,7 @@
         <v>54.67</v>
       </c>
       <c r="J82" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -15882,7 +16756,7 @@
         <v>25.61</v>
       </c>
       <c r="J83" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -15914,7 +16788,7 @@
         <v>59.61</v>
       </c>
       <c r="J84" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -15946,7 +16820,7 @@
         <v>54.67</v>
       </c>
       <c r="J85" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -15978,7 +16852,7 @@
         <v>25.61</v>
       </c>
       <c r="J86" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -16010,7 +16884,7 @@
         <v>59.61</v>
       </c>
       <c r="J87" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -16042,7 +16916,7 @@
         <v>54.67</v>
       </c>
       <c r="J88" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -16074,7 +16948,7 @@
         <v>25.61</v>
       </c>
       <c r="J89" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -16106,7 +16980,7 @@
         <v>59.61</v>
       </c>
       <c r="J90" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -16138,7 +17012,7 @@
         <v>54.67</v>
       </c>
       <c r="J91" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -16170,7 +17044,7 @@
         <v>25.61</v>
       </c>
       <c r="J92" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -16202,7 +17076,7 @@
         <v>59.61</v>
       </c>
       <c r="J93" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -16234,7 +17108,7 @@
         <v>54.67</v>
       </c>
       <c r="J94" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -18979,14 +19853,2735 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection sqref="A1:J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>59.255040000000001</v>
+      </c>
+      <c r="E2">
+        <v>59.255040000000001</v>
+      </c>
+      <c r="F2">
+        <v>2529847.94</v>
+      </c>
+      <c r="G2">
+        <v>5658788.96</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>15.77</v>
+      </c>
+      <c r="J2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>51.815860000000001</v>
+      </c>
+      <c r="E3">
+        <v>51.815860000000001</v>
+      </c>
+      <c r="F3">
+        <v>2529847.94</v>
+      </c>
+      <c r="G3">
+        <v>5658788.96</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>47.14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>39.551789999999997</v>
+      </c>
+      <c r="E4">
+        <v>39.551789999999997</v>
+      </c>
+      <c r="F4">
+        <v>2529847.94</v>
+      </c>
+      <c r="G4">
+        <v>5658788.96</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>55.77</v>
+      </c>
+      <c r="J4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>61.702120000000001</v>
+      </c>
+      <c r="E5">
+        <v>61.702120000000001</v>
+      </c>
+      <c r="F5">
+        <v>2530172.81</v>
+      </c>
+      <c r="G5">
+        <v>5658373.2000000002</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>15.77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>53.688209999999998</v>
+      </c>
+      <c r="E6">
+        <v>53.688209999999998</v>
+      </c>
+      <c r="F6">
+        <v>2530172.81</v>
+      </c>
+      <c r="G6">
+        <v>5658373.2000000002</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>47.14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>42.63655</v>
+      </c>
+      <c r="E7">
+        <v>42.63655</v>
+      </c>
+      <c r="F7">
+        <v>2530172.81</v>
+      </c>
+      <c r="G7">
+        <v>5658373.2000000002</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7">
+        <v>55.77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>59.225119999999997</v>
+      </c>
+      <c r="E8">
+        <v>59.225119999999997</v>
+      </c>
+      <c r="F8">
+        <v>2530041.1800000002</v>
+      </c>
+      <c r="G8">
+        <v>5658643.8899999997</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8">
+        <v>15.77</v>
+      </c>
+      <c r="J8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>52.292929999999998</v>
+      </c>
+      <c r="E9">
+        <v>52.292929999999998</v>
+      </c>
+      <c r="F9">
+        <v>2530041.1800000002</v>
+      </c>
+      <c r="G9">
+        <v>5658643.8899999997</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9">
+        <v>47.14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>41.184010000000001</v>
+      </c>
+      <c r="E10">
+        <v>41.184010000000001</v>
+      </c>
+      <c r="F10">
+        <v>2530041.1800000002</v>
+      </c>
+      <c r="G10">
+        <v>5658643.8899999997</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <v>55.77</v>
+      </c>
+      <c r="J10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>61.885649999999998</v>
+      </c>
+      <c r="E11">
+        <v>61.885649999999998</v>
+      </c>
+      <c r="F11">
+        <v>2529988.65</v>
+      </c>
+      <c r="G11">
+        <v>5658509.5899999999</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>15.77</v>
+      </c>
+      <c r="J11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>54.23847</v>
+      </c>
+      <c r="E12">
+        <v>54.23847</v>
+      </c>
+      <c r="F12">
+        <v>2529988.65</v>
+      </c>
+      <c r="G12">
+        <v>5658509.5899999999</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>47.14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>42.259720000000002</v>
+      </c>
+      <c r="E13">
+        <v>42.259720000000002</v>
+      </c>
+      <c r="F13">
+        <v>2529988.65</v>
+      </c>
+      <c r="G13">
+        <v>5658509.5899999999</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13">
+        <v>55.77</v>
+      </c>
+      <c r="J13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>57.833109999999998</v>
+      </c>
+      <c r="E14">
+        <v>57.833109999999998</v>
+      </c>
+      <c r="F14">
+        <v>2530069.25</v>
+      </c>
+      <c r="G14">
+        <v>5658783.0999999996</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14">
+        <v>15.77</v>
+      </c>
+      <c r="J14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>51.27187</v>
+      </c>
+      <c r="E15">
+        <v>51.27187</v>
+      </c>
+      <c r="F15">
+        <v>2530069.25</v>
+      </c>
+      <c r="G15">
+        <v>5658783.0999999996</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15">
+        <v>47.14</v>
+      </c>
+      <c r="J15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>40.413049999999998</v>
+      </c>
+      <c r="E16">
+        <v>40.413049999999998</v>
+      </c>
+      <c r="F16">
+        <v>2530069.25</v>
+      </c>
+      <c r="G16">
+        <v>5658783.0999999996</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <v>55.77</v>
+      </c>
+      <c r="J16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>65.026169999999993</v>
+      </c>
+      <c r="E17">
+        <v>65.026169999999993</v>
+      </c>
+      <c r="F17">
+        <v>2529756.44</v>
+      </c>
+      <c r="G17">
+        <v>5658357.5099999998</v>
+      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17">
+        <v>15.77</v>
+      </c>
+      <c r="J17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>56.436810000000001</v>
+      </c>
+      <c r="E18">
+        <v>56.436810000000001</v>
+      </c>
+      <c r="F18">
+        <v>2529756.44</v>
+      </c>
+      <c r="G18">
+        <v>5658357.5099999998</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18">
+        <v>47.14</v>
+      </c>
+      <c r="J18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>0.11</v>
+      </c>
+      <c r="D19">
+        <v>39.387970000000003</v>
+      </c>
+      <c r="E19">
+        <v>41.588560000000001</v>
+      </c>
+      <c r="F19">
+        <v>2529756.44</v>
+      </c>
+      <c r="G19">
+        <v>5658357.5099999998</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19">
+        <v>55.77</v>
+      </c>
+      <c r="J19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>61.040050000000001</v>
+      </c>
+      <c r="E20">
+        <v>61.040050000000001</v>
+      </c>
+      <c r="F20">
+        <v>2530084.04</v>
+      </c>
+      <c r="G20">
+        <v>5658515.1100000003</v>
+      </c>
+      <c r="H20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20">
+        <v>15.77</v>
+      </c>
+      <c r="J20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>0.3</v>
+      </c>
+      <c r="D21">
+        <v>49.782310000000003</v>
+      </c>
+      <c r="E21">
+        <v>51.99644</v>
+      </c>
+      <c r="F21">
+        <v>2530084.04</v>
+      </c>
+      <c r="G21">
+        <v>5658515.1100000003</v>
+      </c>
+      <c r="H21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21">
+        <v>47.14</v>
+      </c>
+      <c r="J21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>0.23</v>
+      </c>
+      <c r="D22">
+        <v>39.114359999999998</v>
+      </c>
+      <c r="E22">
+        <v>39.146070000000002</v>
+      </c>
+      <c r="F22">
+        <v>2530084.04</v>
+      </c>
+      <c r="G22">
+        <v>5658515.1100000003</v>
+      </c>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22">
+        <v>55.77</v>
+      </c>
+      <c r="J22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>0.4</v>
+      </c>
+      <c r="D23">
+        <v>60.783679999999997</v>
+      </c>
+      <c r="E23">
+        <v>62.892069999999997</v>
+      </c>
+      <c r="F23">
+        <v>2530053.0499999998</v>
+      </c>
+      <c r="G23">
+        <v>5658116.4199999999</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23">
+        <v>15.77</v>
+      </c>
+      <c r="J23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>0.68</v>
+      </c>
+      <c r="D24">
+        <v>46.51164</v>
+      </c>
+      <c r="E24">
+        <v>48.608980000000003</v>
+      </c>
+      <c r="F24">
+        <v>2530053.0499999998</v>
+      </c>
+      <c r="G24">
+        <v>5658116.4199999999</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24">
+        <v>47.14</v>
+      </c>
+      <c r="J24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>0.15</v>
+      </c>
+      <c r="D25">
+        <v>41.846670000000003</v>
+      </c>
+      <c r="E25">
+        <v>41.846670000000003</v>
+      </c>
+      <c r="F25">
+        <v>2530053.0499999998</v>
+      </c>
+      <c r="G25">
+        <v>5658116.4199999999</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25">
+        <v>55.77</v>
+      </c>
+      <c r="J25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>62.257309999999997</v>
+      </c>
+      <c r="E26">
+        <v>62.257309999999997</v>
+      </c>
+      <c r="F26">
+        <v>2529582.4500000002</v>
+      </c>
+      <c r="G26">
+        <v>5658758.2699999996</v>
+      </c>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26">
+        <v>15.77</v>
+      </c>
+      <c r="J26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>0.2</v>
+      </c>
+      <c r="D27">
+        <v>48.97495</v>
+      </c>
+      <c r="E27">
+        <v>50.392919999999997</v>
+      </c>
+      <c r="F27">
+        <v>2529582.4500000002</v>
+      </c>
+      <c r="G27">
+        <v>5658758.2699999996</v>
+      </c>
+      <c r="H27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27">
+        <v>47.14</v>
+      </c>
+      <c r="J27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>0.18</v>
+      </c>
+      <c r="D28">
+        <v>35.908250000000002</v>
+      </c>
+      <c r="E28">
+        <v>36.126989999999999</v>
+      </c>
+      <c r="F28">
+        <v>2529582.4500000002</v>
+      </c>
+      <c r="G28">
+        <v>5658758.2699999996</v>
+      </c>
+      <c r="H28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28">
+        <v>55.77</v>
+      </c>
+      <c r="J28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>66.642570000000006</v>
+      </c>
+      <c r="E29">
+        <v>66.642570000000006</v>
+      </c>
+      <c r="F29">
+        <v>2529560.2599999998</v>
+      </c>
+      <c r="G29">
+        <v>5658379.3300000001</v>
+      </c>
+      <c r="H29" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29">
+        <v>15.77</v>
+      </c>
+      <c r="J29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>56.678690000000003</v>
+      </c>
+      <c r="E30">
+        <v>56.678690000000003</v>
+      </c>
+      <c r="F30">
+        <v>2529560.2599999998</v>
+      </c>
+      <c r="G30">
+        <v>5658379.3300000001</v>
+      </c>
+      <c r="H30" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30">
+        <v>47.14</v>
+      </c>
+      <c r="J30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>0.12</v>
+      </c>
+      <c r="D31">
+        <v>39.295639999999999</v>
+      </c>
+      <c r="E31">
+        <v>40.551540000000003</v>
+      </c>
+      <c r="F31">
+        <v>2529560.2599999998</v>
+      </c>
+      <c r="G31">
+        <v>5658379.3300000001</v>
+      </c>
+      <c r="H31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31">
+        <v>55.77</v>
+      </c>
+      <c r="J31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>68.554040000000001</v>
+      </c>
+      <c r="E32">
+        <v>68.554040000000001</v>
+      </c>
+      <c r="F32">
+        <v>2529388.19</v>
+      </c>
+      <c r="G32">
+        <v>5658371.25</v>
+      </c>
+      <c r="H32" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32">
+        <v>15.77</v>
+      </c>
+      <c r="J32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>56.437339999999999</v>
+      </c>
+      <c r="E33">
+        <v>56.437339999999999</v>
+      </c>
+      <c r="F33">
+        <v>2529388.19</v>
+      </c>
+      <c r="G33">
+        <v>5658371.25</v>
+      </c>
+      <c r="H33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33">
+        <v>47.14</v>
+      </c>
+      <c r="J33" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>0.12</v>
+      </c>
+      <c r="D34">
+        <v>39.295110000000001</v>
+      </c>
+      <c r="E34">
+        <v>40.29345</v>
+      </c>
+      <c r="F34">
+        <v>2529388.19</v>
+      </c>
+      <c r="G34">
+        <v>5658371.25</v>
+      </c>
+      <c r="H34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34">
+        <v>55.77</v>
+      </c>
+      <c r="J34" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>65.053319999999999</v>
+      </c>
+      <c r="E35">
+        <v>65.053319999999999</v>
+      </c>
+      <c r="F35">
+        <v>2529891.5</v>
+      </c>
+      <c r="G35">
+        <v>5658197.0199999996</v>
+      </c>
+      <c r="H35" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35">
+        <v>15.77</v>
+      </c>
+      <c r="J35" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>186</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>55.906089999999999</v>
+      </c>
+      <c r="E36">
+        <v>55.906089999999999</v>
+      </c>
+      <c r="F36">
+        <v>2529891.5</v>
+      </c>
+      <c r="G36">
+        <v>5658197.0199999996</v>
+      </c>
+      <c r="H36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36">
+        <v>47.14</v>
+      </c>
+      <c r="J36" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>186</v>
+      </c>
+      <c r="B37">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>0.12</v>
+      </c>
+      <c r="D37">
+        <v>40.57329</v>
+      </c>
+      <c r="E37">
+        <v>41.326450000000001</v>
+      </c>
+      <c r="F37">
+        <v>2529891.5</v>
+      </c>
+      <c r="G37">
+        <v>5658197.0199999996</v>
+      </c>
+      <c r="H37" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37">
+        <v>55.77</v>
+      </c>
+      <c r="J37" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>76.110749999999996</v>
+      </c>
+      <c r="E38">
+        <v>76.110749999999996</v>
+      </c>
+      <c r="F38">
+        <v>2529329.83</v>
+      </c>
+      <c r="G38">
+        <v>5657831.9500000002</v>
+      </c>
+      <c r="H38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38">
+        <v>15.77</v>
+      </c>
+      <c r="J38" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>67.589709999999997</v>
+      </c>
+      <c r="E39">
+        <v>67.589709999999997</v>
+      </c>
+      <c r="F39">
+        <v>2529329.83</v>
+      </c>
+      <c r="G39">
+        <v>5657831.9500000002</v>
+      </c>
+      <c r="H39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39">
+        <v>47.14</v>
+      </c>
+      <c r="J39" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>0.15</v>
+      </c>
+      <c r="D40">
+        <v>54.105699999999999</v>
+      </c>
+      <c r="E40">
+        <v>55.444369999999999</v>
+      </c>
+      <c r="F40">
+        <v>2529329.83</v>
+      </c>
+      <c r="G40">
+        <v>5657831.9500000002</v>
+      </c>
+      <c r="H40" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40">
+        <v>55.77</v>
+      </c>
+      <c r="J40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>69.001589999999993</v>
+      </c>
+      <c r="E41">
+        <v>69.001589999999993</v>
+      </c>
+      <c r="F41">
+        <v>2529922.0299999998</v>
+      </c>
+      <c r="G41">
+        <v>5657843.6799999997</v>
+      </c>
+      <c r="H41" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41">
+        <v>15.77</v>
+      </c>
+      <c r="J41" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>60.376690000000004</v>
+      </c>
+      <c r="E42">
+        <v>60.376690000000004</v>
+      </c>
+      <c r="F42">
+        <v>2529922.0299999998</v>
+      </c>
+      <c r="G42">
+        <v>5657843.6799999997</v>
+      </c>
+      <c r="H42" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42">
+        <v>47.14</v>
+      </c>
+      <c r="J42" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>187</v>
+      </c>
+      <c r="B43">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>0.15</v>
+      </c>
+      <c r="D43">
+        <v>45.019300000000001</v>
+      </c>
+      <c r="E43">
+        <v>47.666420000000002</v>
+      </c>
+      <c r="F43">
+        <v>2529922.0299999998</v>
+      </c>
+      <c r="G43">
+        <v>5657843.6799999997</v>
+      </c>
+      <c r="H43" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43">
+        <v>55.77</v>
+      </c>
+      <c r="J43" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D44">
+        <v>60.086739999999999</v>
+      </c>
+      <c r="E44">
+        <v>62.506630000000001</v>
+      </c>
+      <c r="F44">
+        <v>2529323.2000000002</v>
+      </c>
+      <c r="G44">
+        <v>5658729.4400000004</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44">
+        <v>15.77</v>
+      </c>
+      <c r="J44" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>0.9</v>
+      </c>
+      <c r="D45">
+        <v>42.114759999999997</v>
+      </c>
+      <c r="E45">
+        <v>43.757829999999998</v>
+      </c>
+      <c r="F45">
+        <v>2529323.2000000002</v>
+      </c>
+      <c r="G45">
+        <v>5658729.4400000004</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45">
+        <v>47.14</v>
+      </c>
+      <c r="J45" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>188</v>
+      </c>
+      <c r="B46">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>0.21</v>
+      </c>
+      <c r="D46">
+        <v>37.006410000000002</v>
+      </c>
+      <c r="E46">
+        <v>37.006410000000002</v>
+      </c>
+      <c r="F46">
+        <v>2529323.2000000002</v>
+      </c>
+      <c r="G46">
+        <v>5658729.4400000004</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46">
+        <v>55.77</v>
+      </c>
+      <c r="J46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>63.960619999999999</v>
+      </c>
+      <c r="E47">
+        <v>63.960619999999999</v>
+      </c>
+      <c r="F47">
+        <v>2529560.42</v>
+      </c>
+      <c r="G47">
+        <v>5658619.1900000004</v>
+      </c>
+      <c r="H47" t="s">
+        <v>48</v>
+      </c>
+      <c r="I47">
+        <v>15.77</v>
+      </c>
+      <c r="J47" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>160</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>0.3</v>
+      </c>
+      <c r="D48">
+        <v>49.550150000000002</v>
+      </c>
+      <c r="E48">
+        <v>51.689239999999998</v>
+      </c>
+      <c r="F48">
+        <v>2529560.42</v>
+      </c>
+      <c r="G48">
+        <v>5658619.1900000004</v>
+      </c>
+      <c r="H48" t="s">
+        <v>48</v>
+      </c>
+      <c r="I48">
+        <v>47.14</v>
+      </c>
+      <c r="J48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>0.18</v>
+      </c>
+      <c r="D49">
+        <v>37.435130000000001</v>
+      </c>
+      <c r="E49">
+        <v>37.470680000000002</v>
+      </c>
+      <c r="F49">
+        <v>2529560.42</v>
+      </c>
+      <c r="G49">
+        <v>5658619.1900000004</v>
+      </c>
+      <c r="H49" t="s">
+        <v>48</v>
+      </c>
+      <c r="I49">
+        <v>55.77</v>
+      </c>
+      <c r="J49" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>65.964680000000001</v>
+      </c>
+      <c r="E50">
+        <v>65.964680000000001</v>
+      </c>
+      <c r="F50">
+        <v>2529481.34</v>
+      </c>
+      <c r="G50">
+        <v>5658487.75</v>
+      </c>
+      <c r="H50" t="s">
+        <v>52</v>
+      </c>
+      <c r="I50">
+        <v>15.77</v>
+      </c>
+      <c r="J50" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>0.3</v>
+      </c>
+      <c r="D51">
+        <v>50.895719999999997</v>
+      </c>
+      <c r="E51">
+        <v>52.992980000000003</v>
+      </c>
+      <c r="F51">
+        <v>2529481.34</v>
+      </c>
+      <c r="G51">
+        <v>5658487.75</v>
+      </c>
+      <c r="H51" t="s">
+        <v>52</v>
+      </c>
+      <c r="I51">
+        <v>47.14</v>
+      </c>
+      <c r="J51" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>0.18</v>
+      </c>
+      <c r="D52">
+        <v>38.134880000000003</v>
+      </c>
+      <c r="E52">
+        <v>38.226439999999997</v>
+      </c>
+      <c r="F52">
+        <v>2529481.34</v>
+      </c>
+      <c r="G52">
+        <v>5658487.75</v>
+      </c>
+      <c r="H52" t="s">
+        <v>52</v>
+      </c>
+      <c r="I52">
+        <v>55.77</v>
+      </c>
+      <c r="J52" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>69.500349999999997</v>
+      </c>
+      <c r="E53">
+        <v>69.500349999999997</v>
+      </c>
+      <c r="F53">
+        <v>2529262.94</v>
+      </c>
+      <c r="G53">
+        <v>5658401.3200000003</v>
+      </c>
+      <c r="H53" t="s">
+        <v>54</v>
+      </c>
+      <c r="I53">
+        <v>15.77</v>
+      </c>
+      <c r="J53" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>0.35</v>
+      </c>
+      <c r="D54">
+        <v>53.429859999999998</v>
+      </c>
+      <c r="E54">
+        <v>55.66995</v>
+      </c>
+      <c r="F54">
+        <v>2529262.94</v>
+      </c>
+      <c r="G54">
+        <v>5658401.3200000003</v>
+      </c>
+      <c r="H54" t="s">
+        <v>54</v>
+      </c>
+      <c r="I54">
+        <v>47.14</v>
+      </c>
+      <c r="J54" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55">
+        <v>11</v>
+      </c>
+      <c r="C55">
+        <v>0.3</v>
+      </c>
+      <c r="D55">
+        <v>40.200659999999999</v>
+      </c>
+      <c r="E55">
+        <v>40.473660000000002</v>
+      </c>
+      <c r="F55">
+        <v>2529262.94</v>
+      </c>
+      <c r="G55">
+        <v>5658401.3200000003</v>
+      </c>
+      <c r="H55" t="s">
+        <v>54</v>
+      </c>
+      <c r="I55">
+        <v>55.77</v>
+      </c>
+      <c r="J55" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>70.332139999999995</v>
+      </c>
+      <c r="E56">
+        <v>70.332139999999995</v>
+      </c>
+      <c r="F56">
+        <v>2529474.21</v>
+      </c>
+      <c r="G56">
+        <v>5658109.8899999997</v>
+      </c>
+      <c r="H56" t="s">
+        <v>56</v>
+      </c>
+      <c r="I56">
+        <v>15.77</v>
+      </c>
+      <c r="J56" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>59.866059999999997</v>
+      </c>
+      <c r="E57">
+        <v>59.866059999999997</v>
+      </c>
+      <c r="F57">
+        <v>2529474.21</v>
+      </c>
+      <c r="G57">
+        <v>5658109.8899999997</v>
+      </c>
+      <c r="H57" t="s">
+        <v>56</v>
+      </c>
+      <c r="I57">
+        <v>47.14</v>
+      </c>
+      <c r="J57" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58">
+        <v>11</v>
+      </c>
+      <c r="C58">
+        <v>0.2</v>
+      </c>
+      <c r="D58">
+        <v>42.578159999999997</v>
+      </c>
+      <c r="E58">
+        <v>43.404229999999998</v>
+      </c>
+      <c r="F58">
+        <v>2529474.21</v>
+      </c>
+      <c r="G58">
+        <v>5658109.8899999997</v>
+      </c>
+      <c r="H58" t="s">
+        <v>56</v>
+      </c>
+      <c r="I58">
+        <v>55.77</v>
+      </c>
+      <c r="J58" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>69.746309999999994</v>
+      </c>
+      <c r="E59">
+        <v>69.746309999999994</v>
+      </c>
+      <c r="F59">
+        <v>2529722.3199999998</v>
+      </c>
+      <c r="G59">
+        <v>5657913.1600000001</v>
+      </c>
+      <c r="H59" t="s">
+        <v>58</v>
+      </c>
+      <c r="I59">
+        <v>15.77</v>
+      </c>
+      <c r="J59" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>0.3</v>
+      </c>
+      <c r="D60">
+        <v>55.36186</v>
+      </c>
+      <c r="E60">
+        <v>57.579070000000002</v>
+      </c>
+      <c r="F60">
+        <v>2529722.3199999998</v>
+      </c>
+      <c r="G60">
+        <v>5657913.1600000001</v>
+      </c>
+      <c r="H60" t="s">
+        <v>58</v>
+      </c>
+      <c r="I60">
+        <v>47.14</v>
+      </c>
+      <c r="J60" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>0.24</v>
+      </c>
+      <c r="D61">
+        <v>44.552250000000001</v>
+      </c>
+      <c r="E61">
+        <v>44.703099999999999</v>
+      </c>
+      <c r="F61">
+        <v>2529722.3199999998</v>
+      </c>
+      <c r="G61">
+        <v>5657913.1600000001</v>
+      </c>
+      <c r="H61" t="s">
+        <v>58</v>
+      </c>
+      <c r="I61">
+        <v>55.77</v>
+      </c>
+      <c r="J61" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62">
+        <v>9</v>
+      </c>
+      <c r="C62">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D62">
+        <v>64.542019999999994</v>
+      </c>
+      <c r="E62">
+        <v>67.105429999999998</v>
+      </c>
+      <c r="F62">
+        <v>2529643.2000000002</v>
+      </c>
+      <c r="G62">
+        <v>5658035.0899999999</v>
+      </c>
+      <c r="H62" t="s">
+        <v>60</v>
+      </c>
+      <c r="I62">
+        <v>15.77</v>
+      </c>
+      <c r="J62" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <v>0.95</v>
+      </c>
+      <c r="D63">
+        <v>48.918140000000001</v>
+      </c>
+      <c r="E63">
+        <v>50.692990000000002</v>
+      </c>
+      <c r="F63">
+        <v>2529643.2000000002</v>
+      </c>
+      <c r="G63">
+        <v>5658035.0899999999</v>
+      </c>
+      <c r="H63" t="s">
+        <v>60</v>
+      </c>
+      <c r="I63">
+        <v>47.14</v>
+      </c>
+      <c r="J63" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64">
+        <v>11</v>
+      </c>
+      <c r="C64">
+        <v>0.22</v>
+      </c>
+      <c r="D64">
+        <v>43.449710000000003</v>
+      </c>
+      <c r="E64">
+        <v>43.449710000000003</v>
+      </c>
+      <c r="F64">
+        <v>2529643.2000000002</v>
+      </c>
+      <c r="G64">
+        <v>5658035.0899999999</v>
+      </c>
+      <c r="H64" t="s">
+        <v>60</v>
+      </c>
+      <c r="I64">
+        <v>55.77</v>
+      </c>
+      <c r="J64" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>67.062830000000005</v>
+      </c>
+      <c r="E65">
+        <v>67.062830000000005</v>
+      </c>
+      <c r="F65">
+        <v>2529905.71</v>
+      </c>
+      <c r="G65">
+        <v>5658016.5</v>
+      </c>
+      <c r="H65" t="s">
+        <v>62</v>
+      </c>
+      <c r="I65">
+        <v>15.77</v>
+      </c>
+      <c r="J65" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>0.3</v>
+      </c>
+      <c r="D66">
+        <v>53.108870000000003</v>
+      </c>
+      <c r="E66">
+        <v>55.480640000000001</v>
+      </c>
+      <c r="F66">
+        <v>2529905.71</v>
+      </c>
+      <c r="G66">
+        <v>5658016.5</v>
+      </c>
+      <c r="H66" t="s">
+        <v>62</v>
+      </c>
+      <c r="I66">
+        <v>47.14</v>
+      </c>
+      <c r="J66" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67">
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <v>0.2</v>
+      </c>
+      <c r="D67">
+        <v>43.258330000000001</v>
+      </c>
+      <c r="E67">
+        <v>43.293640000000003</v>
+      </c>
+      <c r="F67">
+        <v>2529905.71</v>
+      </c>
+      <c r="G67">
+        <v>5658016.5</v>
+      </c>
+      <c r="H67" t="s">
+        <v>62</v>
+      </c>
+      <c r="I67">
+        <v>55.77</v>
+      </c>
+      <c r="J67" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>71.25394</v>
+      </c>
+      <c r="E68">
+        <v>71.25394</v>
+      </c>
+      <c r="F68">
+        <v>2529735.3199999998</v>
+      </c>
+      <c r="G68">
+        <v>5657797.1799999997</v>
+      </c>
+      <c r="H68" t="s">
+        <v>64</v>
+      </c>
+      <c r="I68">
+        <v>15.77</v>
+      </c>
+      <c r="J68" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>0.2</v>
+      </c>
+      <c r="D69">
+        <v>59.940750000000001</v>
+      </c>
+      <c r="E69">
+        <v>61.224110000000003</v>
+      </c>
+      <c r="F69">
+        <v>2529735.3199999998</v>
+      </c>
+      <c r="G69">
+        <v>5657797.1799999997</v>
+      </c>
+      <c r="H69" t="s">
+        <v>64</v>
+      </c>
+      <c r="I69">
+        <v>47.14</v>
+      </c>
+      <c r="J69" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>0.31</v>
+      </c>
+      <c r="D70">
+        <v>46.341889999999999</v>
+      </c>
+      <c r="E70">
+        <v>47.066850000000002</v>
+      </c>
+      <c r="F70">
+        <v>2529735.3199999998</v>
+      </c>
+      <c r="G70">
+        <v>5657797.1799999997</v>
+      </c>
+      <c r="H70" t="s">
+        <v>64</v>
+      </c>
+      <c r="I70">
+        <v>55.77</v>
+      </c>
+      <c r="J70" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71">
+        <v>9</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>67.526430000000005</v>
+      </c>
+      <c r="E71">
+        <v>67.526430000000005</v>
+      </c>
+      <c r="F71">
+        <v>2529333.34</v>
+      </c>
+      <c r="G71">
+        <v>5658506.4100000001</v>
+      </c>
+      <c r="H71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I71">
+        <v>15.77</v>
+      </c>
+      <c r="J71" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>163</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>55.109310000000001</v>
+      </c>
+      <c r="E72">
+        <v>55.109310000000001</v>
+      </c>
+      <c r="F72">
+        <v>2529333.34</v>
+      </c>
+      <c r="G72">
+        <v>5658506.4100000001</v>
+      </c>
+      <c r="H72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I72">
+        <v>47.14</v>
+      </c>
+      <c r="J72" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>163</v>
+      </c>
+      <c r="B73">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>0.18</v>
+      </c>
+      <c r="D73">
+        <v>38.36121</v>
+      </c>
+      <c r="E73">
+        <v>38.891089999999998</v>
+      </c>
+      <c r="F73">
+        <v>2529333.34</v>
+      </c>
+      <c r="G73">
+        <v>5658506.4100000001</v>
+      </c>
+      <c r="H73" t="s">
+        <v>66</v>
+      </c>
+      <c r="I73">
+        <v>55.77</v>
+      </c>
+      <c r="J73" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>166</v>
+      </c>
+      <c r="B74">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>0.5</v>
+      </c>
+      <c r="D74">
+        <v>66.505439999999993</v>
+      </c>
+      <c r="E74">
+        <v>68.705340000000007</v>
+      </c>
+      <c r="F74">
+        <v>2529308.37</v>
+      </c>
+      <c r="G74">
+        <v>5658264.5300000003</v>
+      </c>
+      <c r="H74" t="s">
+        <v>68</v>
+      </c>
+      <c r="I74">
+        <v>15.77</v>
+      </c>
+      <c r="J74" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>166</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>0.99</v>
+      </c>
+      <c r="D75">
+        <v>47.510289999999998</v>
+      </c>
+      <c r="E75">
+        <v>53.454940000000001</v>
+      </c>
+      <c r="F75">
+        <v>2529308.37</v>
+      </c>
+      <c r="G75">
+        <v>5658264.5300000003</v>
+      </c>
+      <c r="H75" t="s">
+        <v>68</v>
+      </c>
+      <c r="I75">
+        <v>47.14</v>
+      </c>
+      <c r="J75" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>166</v>
+      </c>
+      <c r="B76">
+        <v>11</v>
+      </c>
+      <c r="C76">
+        <v>0.32</v>
+      </c>
+      <c r="D76">
+        <v>42.11392</v>
+      </c>
+      <c r="E76">
+        <v>42.11392</v>
+      </c>
+      <c r="F76">
+        <v>2529308.37</v>
+      </c>
+      <c r="G76">
+        <v>5658264.5300000003</v>
+      </c>
+      <c r="H76" t="s">
+        <v>68</v>
+      </c>
+      <c r="I76">
+        <v>55.77</v>
+      </c>
+      <c r="J76" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>189</v>
+      </c>
+      <c r="B77">
+        <v>9</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>73.831829999999997</v>
+      </c>
+      <c r="E77">
+        <v>73.831829999999997</v>
+      </c>
+      <c r="F77">
+        <v>2529254.94</v>
+      </c>
+      <c r="G77">
+        <v>5658072.25</v>
+      </c>
+      <c r="H77" t="s">
+        <v>70</v>
+      </c>
+      <c r="I77">
+        <v>15.77</v>
+      </c>
+      <c r="J77" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>189</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>0.2</v>
+      </c>
+      <c r="D78">
+        <v>61.478549999999998</v>
+      </c>
+      <c r="E78">
+        <v>62.56718</v>
+      </c>
+      <c r="F78">
+        <v>2529254.94</v>
+      </c>
+      <c r="G78">
+        <v>5658072.25</v>
+      </c>
+      <c r="H78" t="s">
+        <v>70</v>
+      </c>
+      <c r="I78">
+        <v>47.14</v>
+      </c>
+      <c r="J78" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>189</v>
+      </c>
+      <c r="B79">
+        <v>11</v>
+      </c>
+      <c r="C79">
+        <v>0.36</v>
+      </c>
+      <c r="D79">
+        <v>44.848370000000003</v>
+      </c>
+      <c r="E79">
+        <v>46.909419999999997</v>
+      </c>
+      <c r="F79">
+        <v>2529254.94</v>
+      </c>
+      <c r="G79">
+        <v>5658072.25</v>
+      </c>
+      <c r="H79" t="s">
+        <v>70</v>
+      </c>
+      <c r="I79">
+        <v>55.77</v>
+      </c>
+      <c r="J79" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80">
+        <v>9</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>72.834350000000001</v>
+      </c>
+      <c r="E80">
+        <v>72.834350000000001</v>
+      </c>
+      <c r="F80">
+        <v>2529453.79</v>
+      </c>
+      <c r="G80">
+        <v>5657904.4100000001</v>
+      </c>
+      <c r="H80" t="s">
+        <v>72</v>
+      </c>
+      <c r="I80">
+        <v>15.77</v>
+      </c>
+      <c r="J80" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>0.3</v>
+      </c>
+      <c r="D81">
+        <v>60.225020000000001</v>
+      </c>
+      <c r="E81">
+        <v>62.002110000000002</v>
+      </c>
+      <c r="F81">
+        <v>2529453.79</v>
+      </c>
+      <c r="G81">
+        <v>5657904.4100000001</v>
+      </c>
+      <c r="H81" t="s">
+        <v>72</v>
+      </c>
+      <c r="I81">
+        <v>47.14</v>
+      </c>
+      <c r="J81" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>167</v>
+      </c>
+      <c r="B82">
+        <v>11</v>
+      </c>
+      <c r="C82">
+        <v>0.41</v>
+      </c>
+      <c r="D82">
+        <v>46.174410000000002</v>
+      </c>
+      <c r="E82">
+        <v>46.87856</v>
+      </c>
+      <c r="F82">
+        <v>2529453.79</v>
+      </c>
+      <c r="G82">
+        <v>5657904.4100000001</v>
+      </c>
+      <c r="H82" t="s">
+        <v>72</v>
+      </c>
+      <c r="I82">
+        <v>55.77</v>
+      </c>
+      <c r="J82" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>136</v>
+      </c>
+      <c r="B83">
+        <v>9</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>67.554770000000005</v>
+      </c>
+      <c r="E83">
+        <v>67.554770000000005</v>
+      </c>
+      <c r="F83">
+        <v>2529645.62</v>
+      </c>
+      <c r="G83">
+        <v>5658180.1299999999</v>
+      </c>
+      <c r="H83" t="s">
+        <v>74</v>
+      </c>
+      <c r="I83">
+        <v>15.77</v>
+      </c>
+      <c r="J83" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>136</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>0.25</v>
+      </c>
+      <c r="D84">
+        <v>53.923960000000001</v>
+      </c>
+      <c r="E84">
+        <v>55.723210000000002</v>
+      </c>
+      <c r="F84">
+        <v>2529645.62</v>
+      </c>
+      <c r="G84">
+        <v>5658180.1299999999</v>
+      </c>
+      <c r="H84" t="s">
+        <v>74</v>
+      </c>
+      <c r="I84">
+        <v>47.14</v>
+      </c>
+      <c r="J84" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>136</v>
+      </c>
+      <c r="B85">
+        <v>11</v>
+      </c>
+      <c r="C85">
+        <v>0.2</v>
+      </c>
+      <c r="D85">
+        <v>41.572360000000003</v>
+      </c>
+      <c r="E85">
+        <v>41.877809999999997</v>
+      </c>
+      <c r="F85">
+        <v>2529645.62</v>
+      </c>
+      <c r="G85">
+        <v>5658180.1299999999</v>
+      </c>
+      <c r="H85" t="s">
+        <v>74</v>
+      </c>
+      <c r="I85">
+        <v>55.77</v>
+      </c>
+      <c r="J85" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -21358,12 +24953,2351 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>60.296990000000001</v>
+      </c>
+      <c r="E2">
+        <v>60.296990000000001</v>
+      </c>
+      <c r="F2">
+        <v>2529847.94</v>
+      </c>
+      <c r="G2">
+        <v>5658788.96</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>13.25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>53.657310000000003</v>
+      </c>
+      <c r="E3">
+        <v>53.657310000000003</v>
+      </c>
+      <c r="F3">
+        <v>2529847.94</v>
+      </c>
+      <c r="G3">
+        <v>5658788.96</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>40.81</v>
+      </c>
+      <c r="J3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>41.140239999999999</v>
+      </c>
+      <c r="E4">
+        <v>41.140239999999999</v>
+      </c>
+      <c r="F4">
+        <v>2529847.94</v>
+      </c>
+      <c r="G4">
+        <v>5658788.96</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>53.53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>62.056660000000001</v>
+      </c>
+      <c r="E5">
+        <v>62.056660000000001</v>
+      </c>
+      <c r="F5">
+        <v>2530172.81</v>
+      </c>
+      <c r="G5">
+        <v>5658373.2000000002</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>13.25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>56.397460000000002</v>
+      </c>
+      <c r="E6">
+        <v>56.397460000000002</v>
+      </c>
+      <c r="F6">
+        <v>2530172.81</v>
+      </c>
+      <c r="G6">
+        <v>5658373.2000000002</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>40.81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>46.193399999999997</v>
+      </c>
+      <c r="E7">
+        <v>46.193399999999997</v>
+      </c>
+      <c r="F7">
+        <v>2530172.81</v>
+      </c>
+      <c r="G7">
+        <v>5658373.2000000002</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7">
+        <v>53.53</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>59.799439999999997</v>
+      </c>
+      <c r="E8">
+        <v>59.799439999999997</v>
+      </c>
+      <c r="F8">
+        <v>2530041.1800000002</v>
+      </c>
+      <c r="G8">
+        <v>5658643.8899999997</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8">
+        <v>13.25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>53.999020000000002</v>
+      </c>
+      <c r="E9">
+        <v>53.999020000000002</v>
+      </c>
+      <c r="F9">
+        <v>2530041.1800000002</v>
+      </c>
+      <c r="G9">
+        <v>5658643.8899999997</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9">
+        <v>40.81</v>
+      </c>
+      <c r="J9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>42.851950000000002</v>
+      </c>
+      <c r="E10">
+        <v>42.851950000000002</v>
+      </c>
+      <c r="F10">
+        <v>2530041.1800000002</v>
+      </c>
+      <c r="G10">
+        <v>5658643.8899999997</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <v>53.53</v>
+      </c>
+      <c r="J10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>62.57291</v>
+      </c>
+      <c r="E11">
+        <v>62.57291</v>
+      </c>
+      <c r="F11">
+        <v>2529988.65</v>
+      </c>
+      <c r="G11">
+        <v>5658509.5899999999</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>13.25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>56.102870000000003</v>
+      </c>
+      <c r="E12">
+        <v>56.102870000000003</v>
+      </c>
+      <c r="F12">
+        <v>2529988.65</v>
+      </c>
+      <c r="G12">
+        <v>5658509.5899999999</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>40.81</v>
+      </c>
+      <c r="J12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>44.134950000000003</v>
+      </c>
+      <c r="E13">
+        <v>44.134950000000003</v>
+      </c>
+      <c r="F13">
+        <v>2529988.65</v>
+      </c>
+      <c r="G13">
+        <v>5658509.5899999999</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13">
+        <v>53.53</v>
+      </c>
+      <c r="J13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>58.456180000000003</v>
+      </c>
+      <c r="E14">
+        <v>58.456180000000003</v>
+      </c>
+      <c r="F14">
+        <v>2530069.25</v>
+      </c>
+      <c r="G14">
+        <v>5658783.0999999996</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14">
+        <v>13.25</v>
+      </c>
+      <c r="J14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>52.915750000000003</v>
+      </c>
+      <c r="E15">
+        <v>52.915750000000003</v>
+      </c>
+      <c r="F15">
+        <v>2530069.25</v>
+      </c>
+      <c r="G15">
+        <v>5658783.0999999996</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15">
+        <v>40.81</v>
+      </c>
+      <c r="J15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>41.985550000000003</v>
+      </c>
+      <c r="E16">
+        <v>41.985550000000003</v>
+      </c>
+      <c r="F16">
+        <v>2530069.25</v>
+      </c>
+      <c r="G16">
+        <v>5658783.0999999996</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <v>53.53</v>
+      </c>
+      <c r="J16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>66.00676</v>
+      </c>
+      <c r="E17">
+        <v>66.00676</v>
+      </c>
+      <c r="F17">
+        <v>2529756.44</v>
+      </c>
+      <c r="G17">
+        <v>5658357.5099999998</v>
+      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17">
+        <v>13.25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>58.350639999999999</v>
+      </c>
+      <c r="E18">
+        <v>58.350639999999999</v>
+      </c>
+      <c r="F18">
+        <v>2529756.44</v>
+      </c>
+      <c r="G18">
+        <v>5658357.5099999998</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18">
+        <v>40.81</v>
+      </c>
+      <c r="J18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>0.12</v>
+      </c>
+      <c r="D19">
+        <v>42.10904</v>
+      </c>
+      <c r="E19">
+        <v>44.043439999999997</v>
+      </c>
+      <c r="F19">
+        <v>2529756.44</v>
+      </c>
+      <c r="G19">
+        <v>5658357.5099999998</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19">
+        <v>53.53</v>
+      </c>
+      <c r="J19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>61.522910000000003</v>
+      </c>
+      <c r="E20">
+        <v>61.522910000000003</v>
+      </c>
+      <c r="F20">
+        <v>2530084.04</v>
+      </c>
+      <c r="G20">
+        <v>5658515.1100000003</v>
+      </c>
+      <c r="H20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20">
+        <v>13.25</v>
+      </c>
+      <c r="J20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>0.3</v>
+      </c>
+      <c r="D21">
+        <v>52.097999999999999</v>
+      </c>
+      <c r="E21">
+        <v>54.08099</v>
+      </c>
+      <c r="F21">
+        <v>2530084.04</v>
+      </c>
+      <c r="G21">
+        <v>5658515.1100000003</v>
+      </c>
+      <c r="H21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21">
+        <v>40.81</v>
+      </c>
+      <c r="J21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>0.34</v>
+      </c>
+      <c r="D22">
+        <v>39.998809999999999</v>
+      </c>
+      <c r="E22">
+        <v>40.460360000000001</v>
+      </c>
+      <c r="F22">
+        <v>2530084.04</v>
+      </c>
+      <c r="G22">
+        <v>5658515.1100000003</v>
+      </c>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22">
+        <v>53.53</v>
+      </c>
+      <c r="J22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>0.4</v>
+      </c>
+      <c r="D23">
+        <v>61.426139999999997</v>
+      </c>
+      <c r="E23">
+        <v>63.485709999999997</v>
+      </c>
+      <c r="F23">
+        <v>2530053.0499999998</v>
+      </c>
+      <c r="G23">
+        <v>5658116.4199999999</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23">
+        <v>13.25</v>
+      </c>
+      <c r="J23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>0.78</v>
+      </c>
+      <c r="D24">
+        <v>47.666379999999997</v>
+      </c>
+      <c r="E24">
+        <v>53.074950000000001</v>
+      </c>
+      <c r="F24">
+        <v>2530053.0499999998</v>
+      </c>
+      <c r="G24">
+        <v>5658116.4199999999</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24">
+        <v>40.81</v>
+      </c>
+      <c r="J24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>0.31</v>
+      </c>
+      <c r="D25">
+        <v>43.834800000000001</v>
+      </c>
+      <c r="E25">
+        <v>43.834800000000001</v>
+      </c>
+      <c r="F25">
+        <v>2530053.0499999998</v>
+      </c>
+      <c r="G25">
+        <v>5658116.4199999999</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25">
+        <v>53.53</v>
+      </c>
+      <c r="J25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>64.140569999999997</v>
+      </c>
+      <c r="E26">
+        <v>64.140569999999997</v>
+      </c>
+      <c r="F26">
+        <v>2529582.4500000002</v>
+      </c>
+      <c r="G26">
+        <v>5658758.2699999996</v>
+      </c>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26">
+        <v>13.25</v>
+      </c>
+      <c r="J26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>0.2</v>
+      </c>
+      <c r="D27">
+        <v>52.61656</v>
+      </c>
+      <c r="E27">
+        <v>53.814399999999999</v>
+      </c>
+      <c r="F27">
+        <v>2529582.4500000002</v>
+      </c>
+      <c r="G27">
+        <v>5658758.2699999996</v>
+      </c>
+      <c r="H27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27">
+        <v>40.81</v>
+      </c>
+      <c r="J27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>0.26</v>
+      </c>
+      <c r="D28">
+        <v>36.882530000000003</v>
+      </c>
+      <c r="E28">
+        <v>37.467120000000001</v>
+      </c>
+      <c r="F28">
+        <v>2529582.4500000002</v>
+      </c>
+      <c r="G28">
+        <v>5658758.2699999996</v>
+      </c>
+      <c r="H28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28">
+        <v>53.53</v>
+      </c>
+      <c r="J28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>68.135490000000004</v>
+      </c>
+      <c r="E29">
+        <v>68.135490000000004</v>
+      </c>
+      <c r="F29">
+        <v>2529560.2599999998</v>
+      </c>
+      <c r="G29">
+        <v>5658379.3300000001</v>
+      </c>
+      <c r="H29" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29">
+        <v>13.25</v>
+      </c>
+      <c r="J29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>58.713990000000003</v>
+      </c>
+      <c r="E30">
+        <v>58.713990000000003</v>
+      </c>
+      <c r="F30">
+        <v>2529560.2599999998</v>
+      </c>
+      <c r="G30">
+        <v>5658379.3300000001</v>
+      </c>
+      <c r="H30" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30">
+        <v>40.81</v>
+      </c>
+      <c r="J30" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>197</v>
+      </c>
+      <c r="B31">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D31">
+        <v>40.112079999999999</v>
+      </c>
+      <c r="E31">
+        <v>42.8215</v>
+      </c>
+      <c r="F31">
+        <v>2529560.2599999998</v>
+      </c>
+      <c r="G31">
+        <v>5658379.3300000001</v>
+      </c>
+      <c r="H31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31">
+        <v>53.53</v>
+      </c>
+      <c r="J31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>70.264229999999998</v>
+      </c>
+      <c r="E32">
+        <v>70.264229999999998</v>
+      </c>
+      <c r="F32">
+        <v>2529388.19</v>
+      </c>
+      <c r="G32">
+        <v>5658371.25</v>
+      </c>
+      <c r="H32" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32">
+        <v>13.25</v>
+      </c>
+      <c r="J32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>198</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>58.67568</v>
+      </c>
+      <c r="E33">
+        <v>58.67568</v>
+      </c>
+      <c r="F33">
+        <v>2529388.19</v>
+      </c>
+      <c r="G33">
+        <v>5658371.25</v>
+      </c>
+      <c r="H33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33">
+        <v>40.81</v>
+      </c>
+      <c r="J33" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D34">
+        <v>39.769039999999997</v>
+      </c>
+      <c r="E34">
+        <v>42.178260000000002</v>
+      </c>
+      <c r="F34">
+        <v>2529388.19</v>
+      </c>
+      <c r="G34">
+        <v>5658371.25</v>
+      </c>
+      <c r="H34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34">
+        <v>53.53</v>
+      </c>
+      <c r="J34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>199</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>65.606279999999998</v>
+      </c>
+      <c r="E35">
+        <v>65.606279999999998</v>
+      </c>
+      <c r="F35">
+        <v>2529891.5</v>
+      </c>
+      <c r="G35">
+        <v>5658197.0199999996</v>
+      </c>
+      <c r="H35" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35">
+        <v>13.25</v>
+      </c>
+      <c r="J35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>58.21546</v>
+      </c>
+      <c r="E36">
+        <v>58.21546</v>
+      </c>
+      <c r="F36">
+        <v>2529891.5</v>
+      </c>
+      <c r="G36">
+        <v>5658197.0199999996</v>
+      </c>
+      <c r="H36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36">
+        <v>40.81</v>
+      </c>
+      <c r="J36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>199</v>
+      </c>
+      <c r="B37">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>0.15</v>
+      </c>
+      <c r="D37">
+        <v>42.301009999999998</v>
+      </c>
+      <c r="E37">
+        <v>44.809310000000004</v>
+      </c>
+      <c r="F37">
+        <v>2529891.5</v>
+      </c>
+      <c r="G37">
+        <v>5658197.0199999996</v>
+      </c>
+      <c r="H37" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37">
+        <v>53.53</v>
+      </c>
+      <c r="J37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>200</v>
+      </c>
+      <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>76.95693</v>
+      </c>
+      <c r="E38">
+        <v>76.95693</v>
+      </c>
+      <c r="F38">
+        <v>2529329.83</v>
+      </c>
+      <c r="G38">
+        <v>5657831.9500000002</v>
+      </c>
+      <c r="H38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38">
+        <v>13.25</v>
+      </c>
+      <c r="J38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>200</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>68.494280000000003</v>
+      </c>
+      <c r="E39">
+        <v>68.494280000000003</v>
+      </c>
+      <c r="F39">
+        <v>2529329.83</v>
+      </c>
+      <c r="G39">
+        <v>5657831.9500000002</v>
+      </c>
+      <c r="H39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39">
+        <v>40.81</v>
+      </c>
+      <c r="J39" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>200</v>
+      </c>
+      <c r="B40">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>0.15</v>
+      </c>
+      <c r="D40">
+        <v>55.59055</v>
+      </c>
+      <c r="E40">
+        <v>56.815629999999999</v>
+      </c>
+      <c r="F40">
+        <v>2529329.83</v>
+      </c>
+      <c r="G40">
+        <v>5657831.9500000002</v>
+      </c>
+      <c r="H40" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40">
+        <v>53.53</v>
+      </c>
+      <c r="J40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>65.794250000000005</v>
+      </c>
+      <c r="E41">
+        <v>65.794250000000005</v>
+      </c>
+      <c r="F41">
+        <v>2529560.42</v>
+      </c>
+      <c r="G41">
+        <v>5658619.1900000004</v>
+      </c>
+      <c r="H41" t="s">
+        <v>48</v>
+      </c>
+      <c r="I41">
+        <v>13.25</v>
+      </c>
+      <c r="J41" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>0.3</v>
+      </c>
+      <c r="D42">
+        <v>53.023299999999999</v>
+      </c>
+      <c r="E42">
+        <v>54.850389999999997</v>
+      </c>
+      <c r="F42">
+        <v>2529560.42</v>
+      </c>
+      <c r="G42">
+        <v>5658619.1900000004</v>
+      </c>
+      <c r="H42" t="s">
+        <v>48</v>
+      </c>
+      <c r="I42">
+        <v>40.81</v>
+      </c>
+      <c r="J42" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D43">
+        <v>38.220080000000003</v>
+      </c>
+      <c r="E43">
+        <v>38.605690000000003</v>
+      </c>
+      <c r="F43">
+        <v>2529560.42</v>
+      </c>
+      <c r="G43">
+        <v>5658619.1900000004</v>
+      </c>
+      <c r="H43" t="s">
+        <v>48</v>
+      </c>
+      <c r="I43">
+        <v>53.53</v>
+      </c>
+      <c r="J43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>67.930239999999998</v>
+      </c>
+      <c r="E44">
+        <v>67.930239999999998</v>
+      </c>
+      <c r="F44">
+        <v>2529481.34</v>
+      </c>
+      <c r="G44">
+        <v>5658487.75</v>
+      </c>
+      <c r="H44" t="s">
+        <v>52</v>
+      </c>
+      <c r="I44">
+        <v>13.25</v>
+      </c>
+      <c r="J44" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>0.3</v>
+      </c>
+      <c r="D45">
+        <v>54.370010000000001</v>
+      </c>
+      <c r="E45">
+        <v>56.165570000000002</v>
+      </c>
+      <c r="F45">
+        <v>2529481.34</v>
+      </c>
+      <c r="G45">
+        <v>5658487.75</v>
+      </c>
+      <c r="H45" t="s">
+        <v>52</v>
+      </c>
+      <c r="I45">
+        <v>40.81</v>
+      </c>
+      <c r="J45" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D46">
+        <v>38.976349999999996</v>
+      </c>
+      <c r="E46">
+        <v>39.388170000000002</v>
+      </c>
+      <c r="F46">
+        <v>2529481.34</v>
+      </c>
+      <c r="G46">
+        <v>5658487.75</v>
+      </c>
+      <c r="H46" t="s">
+        <v>52</v>
+      </c>
+      <c r="I46">
+        <v>53.53</v>
+      </c>
+      <c r="J46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>201</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>71.383070000000004</v>
+      </c>
+      <c r="E47">
+        <v>71.383070000000004</v>
+      </c>
+      <c r="F47">
+        <v>2529262.94</v>
+      </c>
+      <c r="G47">
+        <v>5658401.3200000003</v>
+      </c>
+      <c r="H47" t="s">
+        <v>54</v>
+      </c>
+      <c r="I47">
+        <v>13.25</v>
+      </c>
+      <c r="J47" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>201</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>0.35</v>
+      </c>
+      <c r="D48">
+        <v>56.220379999999999</v>
+      </c>
+      <c r="E48">
+        <v>58.214440000000003</v>
+      </c>
+      <c r="F48">
+        <v>2529262.94</v>
+      </c>
+      <c r="G48">
+        <v>5658401.3200000003</v>
+      </c>
+      <c r="H48" t="s">
+        <v>54</v>
+      </c>
+      <c r="I48">
+        <v>40.81</v>
+      </c>
+      <c r="J48" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>0.37</v>
+      </c>
+      <c r="D49">
+        <v>40.843609999999998</v>
+      </c>
+      <c r="E49">
+        <v>41.356549999999999</v>
+      </c>
+      <c r="F49">
+        <v>2529262.94</v>
+      </c>
+      <c r="G49">
+        <v>5658401.3200000003</v>
+      </c>
+      <c r="H49" t="s">
+        <v>54</v>
+      </c>
+      <c r="I49">
+        <v>53.53</v>
+      </c>
+      <c r="J49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>187</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>71.49342</v>
+      </c>
+      <c r="E50">
+        <v>71.49342</v>
+      </c>
+      <c r="F50">
+        <v>2529474.21</v>
+      </c>
+      <c r="G50">
+        <v>5658109.8899999997</v>
+      </c>
+      <c r="H50" t="s">
+        <v>56</v>
+      </c>
+      <c r="I50">
+        <v>13.25</v>
+      </c>
+      <c r="J50" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>187</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>61.476570000000002</v>
+      </c>
+      <c r="E51">
+        <v>61.476570000000002</v>
+      </c>
+      <c r="F51">
+        <v>2529474.21</v>
+      </c>
+      <c r="G51">
+        <v>5658109.8899999997</v>
+      </c>
+      <c r="H51" t="s">
+        <v>56</v>
+      </c>
+      <c r="I51">
+        <v>40.81</v>
+      </c>
+      <c r="J51" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>187</v>
+      </c>
+      <c r="B52">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>0.23</v>
+      </c>
+      <c r="D52">
+        <v>43.176490000000001</v>
+      </c>
+      <c r="E52">
+        <v>45.70232</v>
+      </c>
+      <c r="F52">
+        <v>2529474.21</v>
+      </c>
+      <c r="G52">
+        <v>5658109.8899999997</v>
+      </c>
+      <c r="H52" t="s">
+        <v>56</v>
+      </c>
+      <c r="I52">
+        <v>53.53</v>
+      </c>
+      <c r="J52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>202</v>
+      </c>
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D53">
+        <v>65.234809999999996</v>
+      </c>
+      <c r="E53">
+        <v>67.741879999999995</v>
+      </c>
+      <c r="F53">
+        <v>2529643.2000000002</v>
+      </c>
+      <c r="G53">
+        <v>5658035.0899999999</v>
+      </c>
+      <c r="H53" t="s">
+        <v>60</v>
+      </c>
+      <c r="I53">
+        <v>13.25</v>
+      </c>
+      <c r="J53" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>202</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>1.07</v>
+      </c>
+      <c r="D54">
+        <v>49.829920000000001</v>
+      </c>
+      <c r="E54">
+        <v>54.431480000000001</v>
+      </c>
+      <c r="F54">
+        <v>2529643.2000000002</v>
+      </c>
+      <c r="G54">
+        <v>5658035.0899999999</v>
+      </c>
+      <c r="H54" t="s">
+        <v>60</v>
+      </c>
+      <c r="I54">
+        <v>40.81</v>
+      </c>
+      <c r="J54" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>202</v>
+      </c>
+      <c r="B55">
+        <v>11</v>
+      </c>
+      <c r="C55">
+        <v>0.41</v>
+      </c>
+      <c r="D55">
+        <v>45.558079999999997</v>
+      </c>
+      <c r="E55">
+        <v>45.558079999999997</v>
+      </c>
+      <c r="F55">
+        <v>2529643.2000000002</v>
+      </c>
+      <c r="G55">
+        <v>5658035.0899999999</v>
+      </c>
+      <c r="H55" t="s">
+        <v>60</v>
+      </c>
+      <c r="I55">
+        <v>53.53</v>
+      </c>
+      <c r="J55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>203</v>
+      </c>
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>67.526889999999995</v>
+      </c>
+      <c r="E56">
+        <v>67.526889999999995</v>
+      </c>
+      <c r="F56">
+        <v>2529905.71</v>
+      </c>
+      <c r="G56">
+        <v>5658016.5</v>
+      </c>
+      <c r="H56" t="s">
+        <v>62</v>
+      </c>
+      <c r="I56">
+        <v>13.25</v>
+      </c>
+      <c r="J56" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>203</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>0.3</v>
+      </c>
+      <c r="D57">
+        <v>56.368549999999999</v>
+      </c>
+      <c r="E57">
+        <v>58.388509999999997</v>
+      </c>
+      <c r="F57">
+        <v>2529905.71</v>
+      </c>
+      <c r="G57">
+        <v>5658016.5</v>
+      </c>
+      <c r="H57" t="s">
+        <v>62</v>
+      </c>
+      <c r="I57">
+        <v>40.81</v>
+      </c>
+      <c r="J57" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>203</v>
+      </c>
+      <c r="B58">
+        <v>11</v>
+      </c>
+      <c r="C58">
+        <v>0.38</v>
+      </c>
+      <c r="D58">
+        <v>45.086269999999999</v>
+      </c>
+      <c r="E58">
+        <v>45.605269999999997</v>
+      </c>
+      <c r="F58">
+        <v>2529905.71</v>
+      </c>
+      <c r="G58">
+        <v>5658016.5</v>
+      </c>
+      <c r="H58" t="s">
+        <v>62</v>
+      </c>
+      <c r="I58">
+        <v>53.53</v>
+      </c>
+      <c r="J58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>69.797160000000005</v>
+      </c>
+      <c r="E59">
+        <v>69.797160000000005</v>
+      </c>
+      <c r="F59">
+        <v>2529333.34</v>
+      </c>
+      <c r="G59">
+        <v>5658506.4100000001</v>
+      </c>
+      <c r="H59" t="s">
+        <v>66</v>
+      </c>
+      <c r="I59">
+        <v>13.25</v>
+      </c>
+      <c r="J59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>160</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>58.456969999999998</v>
+      </c>
+      <c r="E60">
+        <v>58.456969999999998</v>
+      </c>
+      <c r="F60">
+        <v>2529333.34</v>
+      </c>
+      <c r="G60">
+        <v>5658506.4100000001</v>
+      </c>
+      <c r="H60" t="s">
+        <v>66</v>
+      </c>
+      <c r="I60">
+        <v>40.81</v>
+      </c>
+      <c r="J60" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>160</v>
+      </c>
+      <c r="B61">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>0.22</v>
+      </c>
+      <c r="D61">
+        <v>39.134799999999998</v>
+      </c>
+      <c r="E61">
+        <v>40.761249999999997</v>
+      </c>
+      <c r="F61">
+        <v>2529333.34</v>
+      </c>
+      <c r="G61">
+        <v>5658506.4100000001</v>
+      </c>
+      <c r="H61" t="s">
+        <v>66</v>
+      </c>
+      <c r="I61">
+        <v>53.53</v>
+      </c>
+      <c r="J61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62">
+        <v>9</v>
+      </c>
+      <c r="C62">
+        <v>0.5</v>
+      </c>
+      <c r="D62">
+        <v>68.023750000000007</v>
+      </c>
+      <c r="E62">
+        <v>70.223650000000006</v>
+      </c>
+      <c r="F62">
+        <v>2529308.37</v>
+      </c>
+      <c r="G62">
+        <v>5658264.5300000003</v>
+      </c>
+      <c r="H62" t="s">
+        <v>68</v>
+      </c>
+      <c r="I62">
+        <v>13.25</v>
+      </c>
+      <c r="J62" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>48.809379999999997</v>
+      </c>
+      <c r="E63">
+        <v>55.674709999999997</v>
+      </c>
+      <c r="F63">
+        <v>2529308.37</v>
+      </c>
+      <c r="G63">
+        <v>5658264.5300000003</v>
+      </c>
+      <c r="H63" t="s">
+        <v>68</v>
+      </c>
+      <c r="I63">
+        <v>40.81</v>
+      </c>
+      <c r="J63" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64">
+        <v>11</v>
+      </c>
+      <c r="C64">
+        <v>0.41</v>
+      </c>
+      <c r="D64">
+        <v>42.51352</v>
+      </c>
+      <c r="E64">
+        <v>42.873440000000002</v>
+      </c>
+      <c r="F64">
+        <v>2529308.37</v>
+      </c>
+      <c r="G64">
+        <v>5658264.5300000003</v>
+      </c>
+      <c r="H64" t="s">
+        <v>68</v>
+      </c>
+      <c r="I64">
+        <v>53.53</v>
+      </c>
+      <c r="J64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>75.077759999999998</v>
+      </c>
+      <c r="E65">
+        <v>75.077759999999998</v>
+      </c>
+      <c r="F65">
+        <v>2529254.94</v>
+      </c>
+      <c r="G65">
+        <v>5658072.25</v>
+      </c>
+      <c r="H65" t="s">
+        <v>70</v>
+      </c>
+      <c r="I65">
+        <v>13.25</v>
+      </c>
+      <c r="J65" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>0.2</v>
+      </c>
+      <c r="D66">
+        <v>62.71631</v>
+      </c>
+      <c r="E66">
+        <v>63.754150000000003</v>
+      </c>
+      <c r="F66">
+        <v>2529254.94</v>
+      </c>
+      <c r="G66">
+        <v>5658072.25</v>
+      </c>
+      <c r="H66" t="s">
+        <v>70</v>
+      </c>
+      <c r="I66">
+        <v>40.81</v>
+      </c>
+      <c r="J66" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67">
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <v>0.38</v>
+      </c>
+      <c r="D67">
+        <v>45.211129999999997</v>
+      </c>
+      <c r="E67">
+        <v>48.592779999999998</v>
+      </c>
+      <c r="F67">
+        <v>2529254.94</v>
+      </c>
+      <c r="G67">
+        <v>5658072.25</v>
+      </c>
+      <c r="H67" t="s">
+        <v>70</v>
+      </c>
+      <c r="I67">
+        <v>53.53</v>
+      </c>
+      <c r="J67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>73.657380000000003</v>
+      </c>
+      <c r="E68">
+        <v>73.657380000000003</v>
+      </c>
+      <c r="F68">
+        <v>2529453.79</v>
+      </c>
+      <c r="G68">
+        <v>5657904.4100000001</v>
+      </c>
+      <c r="H68" t="s">
+        <v>72</v>
+      </c>
+      <c r="I68">
+        <v>13.25</v>
+      </c>
+      <c r="J68" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>0.3</v>
+      </c>
+      <c r="D69">
+        <v>61.865690000000001</v>
+      </c>
+      <c r="E69">
+        <v>63.528840000000002</v>
+      </c>
+      <c r="F69">
+        <v>2529453.79</v>
+      </c>
+      <c r="G69">
+        <v>5657904.4100000001</v>
+      </c>
+      <c r="H69" t="s">
+        <v>72</v>
+      </c>
+      <c r="I69">
+        <v>40.81</v>
+      </c>
+      <c r="J69" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>0.49</v>
+      </c>
+      <c r="D70">
+        <v>46.984310000000001</v>
+      </c>
+      <c r="E70">
+        <v>48.059930000000001</v>
+      </c>
+      <c r="F70">
+        <v>2529453.79</v>
+      </c>
+      <c r="G70">
+        <v>5657904.4100000001</v>
+      </c>
+      <c r="H70" t="s">
+        <v>72</v>
+      </c>
+      <c r="I70">
+        <v>53.53</v>
+      </c>
+      <c r="J70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71">
+        <v>9</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>68.450760000000002</v>
+      </c>
+      <c r="E71">
+        <v>68.450760000000002</v>
+      </c>
+      <c r="F71">
+        <v>2529645.62</v>
+      </c>
+      <c r="G71">
+        <v>5658180.1299999999</v>
+      </c>
+      <c r="H71" t="s">
+        <v>74</v>
+      </c>
+      <c r="I71">
+        <v>13.25</v>
+      </c>
+      <c r="J71" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>0.25</v>
+      </c>
+      <c r="D72">
+        <v>56.326630000000002</v>
+      </c>
+      <c r="E72">
+        <v>57.932450000000003</v>
+      </c>
+      <c r="F72">
+        <v>2529645.62</v>
+      </c>
+      <c r="G72">
+        <v>5658180.1299999999</v>
+      </c>
+      <c r="H72" t="s">
+        <v>74</v>
+      </c>
+      <c r="I72">
+        <v>40.81</v>
+      </c>
+      <c r="J72" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D73">
+        <v>42.573560000000001</v>
+      </c>
+      <c r="E73">
+        <v>43.153979999999997</v>
+      </c>
+      <c r="F73">
+        <v>2529645.62</v>
+      </c>
+      <c r="G73">
+        <v>5658180.1299999999</v>
+      </c>
+      <c r="H73" t="s">
+        <v>74</v>
+      </c>
+      <c r="I73">
+        <v>53.53</v>
+      </c>
+      <c r="J73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -24701,8 +30635,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S37" sqref="S37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
